--- a/teaching/traditional_assets/database/data/hungary/hungary_diversified.xlsx
+++ b/teaching/traditional_assets/database/data/hungary/hungary_diversified.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="buse_opus" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,22 +593,22 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.03764833261152013</v>
+        <v>0.1418139892390469</v>
       </c>
       <c r="H2">
-        <v>-0.03832828064097012</v>
+        <v>0.1418139892390469</v>
       </c>
       <c r="I2">
-        <v>-0.1608921611087051</v>
+        <v>0.1314373558800923</v>
       </c>
       <c r="J2">
-        <v>-0.1560708135199257</v>
+        <v>0.1090733878646736</v>
       </c>
       <c r="K2">
-        <v>85.59999999999999</v>
+        <v>-82.5</v>
       </c>
       <c r="L2">
-        <v>0.1853616284105673</v>
+        <v>-0.1585318985395849</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +626,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>293.3</v>
+        <v>338.7</v>
       </c>
       <c r="V2">
-        <v>0.3714068633658351</v>
+        <v>0.5083295812696984</v>
       </c>
       <c r="W2">
-        <v>1.562043795620438</v>
+        <v>-0.1398542125784031</v>
       </c>
       <c r="X2">
-        <v>0.08851959911927207</v>
+        <v>0.09119411706323929</v>
       </c>
       <c r="Y2">
-        <v>1.473524196501166</v>
+        <v>-0.2310483296416424</v>
       </c>
       <c r="Z2">
-        <v>5.162545275678576</v>
+        <v>1.529238906846899</v>
       </c>
       <c r="AA2">
-        <v>-0.8057226410086042</v>
+        <v>0.1667992684242613</v>
       </c>
       <c r="AB2">
-        <v>0.07696547939250545</v>
+        <v>0.07070205718666192</v>
       </c>
       <c r="AC2">
-        <v>-0.8826881204011097</v>
+        <v>0.09609721123759934</v>
       </c>
       <c r="AD2">
-        <v>313.6</v>
+        <v>462.5</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>313.6</v>
+        <v>462.5</v>
       </c>
       <c r="AG2">
-        <v>20.30000000000001</v>
+        <v>123.8</v>
       </c>
       <c r="AH2">
-        <v>0.2842381945073869</v>
+        <v>0.409727143869596</v>
       </c>
       <c r="AI2">
-        <v>0.254959349593496</v>
+        <v>0.3773354001794892</v>
       </c>
       <c r="AJ2">
-        <v>0.02506172839506174</v>
+        <v>0.1566890267054803</v>
       </c>
       <c r="AK2">
-        <v>0.02167182662538701</v>
+        <v>0.1395715896279594</v>
       </c>
       <c r="AL2">
-        <v>6.3</v>
+        <v>41.4</v>
       </c>
       <c r="AM2">
-        <v>-19.3</v>
+        <v>41.4</v>
       </c>
       <c r="AN2">
-        <v>-23.05882352941177</v>
+        <v>3.443782576321667</v>
       </c>
       <c r="AO2">
-        <v>-11.79365079365079</v>
+        <v>1.652173913043478</v>
       </c>
       <c r="AP2">
-        <v>-1.49264705882353</v>
+        <v>0.9218168279970216</v>
       </c>
       <c r="AQ2">
-        <v>3.849740932642487</v>
+        <v>1.652173913043478</v>
       </c>
     </row>
     <row r="3">
@@ -716,22 +718,22 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.03764833261152013</v>
+        <v>0.1418139892390469</v>
       </c>
       <c r="H3">
-        <v>-0.03832828064097012</v>
+        <v>0.1418139892390469</v>
       </c>
       <c r="I3">
-        <v>-0.1608921611087051</v>
+        <v>0.1314373558800923</v>
       </c>
       <c r="J3">
-        <v>-0.1560708135199257</v>
+        <v>0.1090733878646736</v>
       </c>
       <c r="K3">
-        <v>85.59999999999999</v>
+        <v>-82.5</v>
       </c>
       <c r="L3">
-        <v>0.1853616284105673</v>
+        <v>-0.1585318985395849</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +742,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +751,8797 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>293.3</v>
+        <v>338.7</v>
       </c>
       <c r="V3">
-        <v>0.3714068633658351</v>
+        <v>0.5083295812696984</v>
       </c>
       <c r="W3">
-        <v>1.562043795620438</v>
+        <v>-0.1398542125784031</v>
       </c>
       <c r="X3">
-        <v>0.08851959911927207</v>
+        <v>0.09119411706323929</v>
       </c>
       <c r="Y3">
-        <v>1.473524196501166</v>
+        <v>-0.2310483296416424</v>
       </c>
       <c r="Z3">
-        <v>5.162545275678576</v>
+        <v>1.529238906846899</v>
       </c>
       <c r="AA3">
-        <v>-0.8057226410086042</v>
+        <v>0.1667992684242613</v>
       </c>
       <c r="AB3">
-        <v>0.07696547939250545</v>
+        <v>0.07070205718666192</v>
       </c>
       <c r="AC3">
-        <v>-0.8826881204011097</v>
+        <v>0.09609721123759934</v>
       </c>
       <c r="AD3">
-        <v>313.6</v>
+        <v>462.5</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>313.6</v>
+        <v>462.5</v>
       </c>
       <c r="AG3">
-        <v>20.30000000000001</v>
+        <v>123.8</v>
       </c>
       <c r="AH3">
-        <v>0.2842381945073869</v>
+        <v>0.409727143869596</v>
       </c>
       <c r="AI3">
-        <v>0.254959349593496</v>
+        <v>0.3773354001794892</v>
       </c>
       <c r="AJ3">
-        <v>0.02506172839506174</v>
+        <v>0.1566890267054803</v>
       </c>
       <c r="AK3">
-        <v>0.02167182662538701</v>
+        <v>0.1395715896279594</v>
       </c>
       <c r="AL3">
-        <v>6.3</v>
+        <v>41.4</v>
       </c>
       <c r="AM3">
-        <v>-19.3</v>
+        <v>41.4</v>
       </c>
       <c r="AN3">
-        <v>-23.05882352941177</v>
+        <v>3.443782576321667</v>
       </c>
       <c r="AO3">
-        <v>-11.79365079365079</v>
+        <v>1.652173913043478</v>
       </c>
       <c r="AP3">
-        <v>-1.49264705882353</v>
+        <v>0.9218168279970216</v>
       </c>
       <c r="AQ3">
-        <v>3.849740932642487</v>
+        <v>1.652173913043478</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>OPUS GLOBAL Nyrt. (BUSE:OPUS)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BUSE:OPUS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Diversified</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.409727143869596</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>666.3</v>
+      </c>
+      <c r="H2">
+        <v>1193.4036323426</v>
+      </c>
+      <c r="I2">
+        <v>790.1</v>
+      </c>
+      <c r="J2">
+        <v>854.703632342595</v>
+      </c>
+      <c r="K2">
+        <v>462.5</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.07070205718666191</v>
+      </c>
+      <c r="N2">
+        <v>0.0594906778570482</v>
+      </c>
+      <c r="O2">
+        <v>0.0411801988174435</v>
+      </c>
+      <c r="P2">
+        <v>0.014742</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>B3/B-</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.09119411706323929</v>
+      </c>
+      <c r="T2">
+        <v>0.0594906778570482</v>
+      </c>
+      <c r="U2">
+        <v>1.19520376913987</v>
+      </c>
+      <c r="V2">
+        <v>0.732507895580655</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>666.3</v>
+      </c>
+      <c r="AB2">
+        <v>0.06851895817076799</v>
+      </c>
+      <c r="AC2">
+        <v>0.04525296573345439</v>
+      </c>
+      <c r="AD2">
+        <v>0.09</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>134.3</v>
+      </c>
+      <c r="AH2">
+        <v>53.8</v>
+      </c>
+      <c r="AI2">
+        <v>-7.105427357601002e-15</v>
+      </c>
+      <c r="AJ2">
+        <v>462.5</v>
+      </c>
+      <c r="AK2">
+        <v>462.4999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>41.4</v>
+      </c>
+      <c r="AM2">
+        <v>462.5</v>
+      </c>
+      <c r="AN2">
+        <v>338.7</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05949067785704817</v>
+      </c>
+      <c r="C2">
+        <v>1193.403632342595</v>
+      </c>
+      <c r="D2">
+        <v>854.703632342595</v>
+      </c>
+      <c r="E2">
+        <v>-462.5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>338.7</v>
+      </c>
+      <c r="H2">
+        <v>666.3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>134.3</v>
+      </c>
+      <c r="K2">
+        <v>53.8</v>
+      </c>
+      <c r="L2">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="O2">
+        <v>7.245000000000001</v>
+      </c>
+      <c r="P2">
+        <v>73.25500000000001</v>
+      </c>
+      <c r="Q2">
+        <v>127.055</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05949067785704817</v>
+      </c>
+      <c r="T2">
+        <v>0.7325078955806548</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.09</v>
+      </c>
+      <c r="W2">
+        <v>0.014742</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05949992624697682</v>
+      </c>
+      <c r="C3">
+        <v>1182.057986469969</v>
+      </c>
+      <c r="D3">
+        <v>854.6459864699693</v>
+      </c>
+      <c r="E3">
+        <v>-451.212</v>
+      </c>
+      <c r="F3">
+        <v>11.288</v>
+      </c>
+      <c r="G3">
+        <v>338.7</v>
+      </c>
+      <c r="H3">
+        <v>666.3</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>134.3</v>
+      </c>
+      <c r="K3">
+        <v>53.8</v>
+      </c>
+      <c r="L3">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.1828656</v>
+      </c>
+      <c r="N3">
+        <v>80.31713440000001</v>
+      </c>
+      <c r="O3">
+        <v>7.228542096000001</v>
+      </c>
+      <c r="P3">
+        <v>73.08859230400002</v>
+      </c>
+      <c r="Q3">
+        <v>126.888592304</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.0599520265120978</v>
+      </c>
+      <c r="T3">
+        <v>0.7392410489642749</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.09</v>
+      </c>
+      <c r="W3">
+        <v>0.014742</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>440.2140151018016</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05950917463690548</v>
+      </c>
+      <c r="C4">
+        <v>1170.712348372723</v>
+      </c>
+      <c r="D4">
+        <v>854.5883483727229</v>
+      </c>
+      <c r="E4">
+        <v>-439.924</v>
+      </c>
+      <c r="F4">
+        <v>22.576</v>
+      </c>
+      <c r="G4">
+        <v>338.7</v>
+      </c>
+      <c r="H4">
+        <v>666.3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>134.3</v>
+      </c>
+      <c r="K4">
+        <v>53.8</v>
+      </c>
+      <c r="L4">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.3657312</v>
+      </c>
+      <c r="N4">
+        <v>80.13426880000002</v>
+      </c>
+      <c r="O4">
+        <v>7.212084192000001</v>
+      </c>
+      <c r="P4">
+        <v>72.92218460800001</v>
+      </c>
+      <c r="Q4">
+        <v>126.722184608</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.06042279044582193</v>
+      </c>
+      <c r="T4">
+        <v>0.7461116136414384</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.09</v>
+      </c>
+      <c r="W4">
+        <v>0.014742</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>220.1070075509008</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05951842302683413</v>
+      </c>
+      <c r="C5">
+        <v>1159.366718049283</v>
+      </c>
+      <c r="D5">
+        <v>854.530718049283</v>
+      </c>
+      <c r="E5">
+        <v>-428.636</v>
+      </c>
+      <c r="F5">
+        <v>33.864</v>
+      </c>
+      <c r="G5">
+        <v>338.7</v>
+      </c>
+      <c r="H5">
+        <v>666.3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>134.3</v>
+      </c>
+      <c r="K5">
+        <v>53.8</v>
+      </c>
+      <c r="L5">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.5485967999999999</v>
+      </c>
+      <c r="N5">
+        <v>79.95140320000002</v>
+      </c>
+      <c r="O5">
+        <v>7.195626288000001</v>
+      </c>
+      <c r="P5">
+        <v>72.75577691200002</v>
+      </c>
+      <c r="Q5">
+        <v>126.555776912</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.06090326085240633</v>
+      </c>
+      <c r="T5">
+        <v>0.7531238394459661</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.09</v>
+      </c>
+      <c r="W5">
+        <v>0.014742</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>146.7380050339339</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.0595276714167628</v>
+      </c>
+      <c r="C6">
+        <v>1148.021095498077</v>
+      </c>
+      <c r="D6">
+        <v>854.4730954980766</v>
+      </c>
+      <c r="E6">
+        <v>-417.348</v>
+      </c>
+      <c r="F6">
+        <v>45.152</v>
+      </c>
+      <c r="G6">
+        <v>338.7</v>
+      </c>
+      <c r="H6">
+        <v>666.3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>134.3</v>
+      </c>
+      <c r="K6">
+        <v>53.8</v>
+      </c>
+      <c r="L6">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.7314624</v>
+      </c>
+      <c r="N6">
+        <v>79.76853760000002</v>
+      </c>
+      <c r="O6">
+        <v>7.179168384000001</v>
+      </c>
+      <c r="P6">
+        <v>72.58936921600001</v>
+      </c>
+      <c r="Q6">
+        <v>126.389369216</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.06139374105912791</v>
+      </c>
+      <c r="T6">
+        <v>0.7602821532880879</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.09</v>
+      </c>
+      <c r="W6">
+        <v>0.014742</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>110.0535037754504</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05953691980669144</v>
+      </c>
+      <c r="C7">
+        <v>1136.675480717532</v>
+      </c>
+      <c r="D7">
+        <v>854.4154807175322</v>
+      </c>
+      <c r="E7">
+        <v>-406.06</v>
+      </c>
+      <c r="F7">
+        <v>56.44</v>
+      </c>
+      <c r="G7">
+        <v>338.7</v>
+      </c>
+      <c r="H7">
+        <v>666.3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>134.3</v>
+      </c>
+      <c r="K7">
+        <v>53.8</v>
+      </c>
+      <c r="L7">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.9143279999999999</v>
+      </c>
+      <c r="N7">
+        <v>79.58567200000002</v>
+      </c>
+      <c r="O7">
+        <v>7.162710480000001</v>
+      </c>
+      <c r="P7">
+        <v>72.42296152000002</v>
+      </c>
+      <c r="Q7">
+        <v>126.22296152</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.06189454716493836</v>
+      </c>
+      <c r="T7">
+        <v>0.7675911684742545</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.09</v>
+      </c>
+      <c r="W7">
+        <v>0.014742</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>88.04280302036034</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05954616819662011</v>
+      </c>
+      <c r="C8">
+        <v>1125.329873706077</v>
+      </c>
+      <c r="D8">
+        <v>854.3578737060774</v>
+      </c>
+      <c r="E8">
+        <v>-394.772</v>
+      </c>
+      <c r="F8">
+        <v>67.72799999999999</v>
+      </c>
+      <c r="G8">
+        <v>338.7</v>
+      </c>
+      <c r="H8">
+        <v>666.3</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>134.3</v>
+      </c>
+      <c r="K8">
+        <v>53.8</v>
+      </c>
+      <c r="L8">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M8">
+        <v>1.0971936</v>
+      </c>
+      <c r="N8">
+        <v>79.40280640000002</v>
+      </c>
+      <c r="O8">
+        <v>7.146252576000001</v>
+      </c>
+      <c r="P8">
+        <v>72.25655382400002</v>
+      </c>
+      <c r="Q8">
+        <v>126.056553824</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06240600871980863</v>
+      </c>
+      <c r="T8">
+        <v>0.775055694621829</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.09</v>
+      </c>
+      <c r="W8">
+        <v>0.014742</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>73.36900251696696</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05955541658654877</v>
+      </c>
+      <c r="C9">
+        <v>1113.984274462141</v>
+      </c>
+      <c r="D9">
+        <v>854.300274462141</v>
+      </c>
+      <c r="E9">
+        <v>-383.484</v>
+      </c>
+      <c r="F9">
+        <v>79.01600000000001</v>
+      </c>
+      <c r="G9">
+        <v>338.7</v>
+      </c>
+      <c r="H9">
+        <v>666.3</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>134.3</v>
+      </c>
+      <c r="K9">
+        <v>53.8</v>
+      </c>
+      <c r="L9">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M9">
+        <v>1.2800592</v>
+      </c>
+      <c r="N9">
+        <v>79.21994080000002</v>
+      </c>
+      <c r="O9">
+        <v>7.129794672000001</v>
+      </c>
+      <c r="P9">
+        <v>72.09014612800001</v>
+      </c>
+      <c r="Q9">
+        <v>125.890146128</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06292846944790191</v>
+      </c>
+      <c r="T9">
+        <v>0.7826807482134374</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.09</v>
+      </c>
+      <c r="W9">
+        <v>0.014742</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>62.88771644311452</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05956466497647743</v>
+      </c>
+      <c r="C10">
+        <v>1102.638682984152</v>
+      </c>
+      <c r="D10">
+        <v>854.2426829841525</v>
+      </c>
+      <c r="E10">
+        <v>-372.196</v>
+      </c>
+      <c r="F10">
+        <v>90.304</v>
+      </c>
+      <c r="G10">
+        <v>338.7</v>
+      </c>
+      <c r="H10">
+        <v>666.3</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>134.3</v>
+      </c>
+      <c r="K10">
+        <v>53.8</v>
+      </c>
+      <c r="L10">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M10">
+        <v>1.4629248</v>
+      </c>
+      <c r="N10">
+        <v>79.03707520000002</v>
+      </c>
+      <c r="O10">
+        <v>7.113336768000002</v>
+      </c>
+      <c r="P10">
+        <v>71.92373843200002</v>
+      </c>
+      <c r="Q10">
+        <v>125.723738432</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06346228801791025</v>
+      </c>
+      <c r="T10">
+        <v>0.7904715638396458</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.09</v>
+      </c>
+      <c r="W10">
+        <v>0.014742</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>55.02675188772521</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05957391336640608</v>
+      </c>
+      <c r="C11">
+        <v>1091.293099270541</v>
+      </c>
+      <c r="D11">
+        <v>854.1850992705409</v>
+      </c>
+      <c r="E11">
+        <v>-360.908</v>
+      </c>
+      <c r="F11">
+        <v>101.592</v>
+      </c>
+      <c r="G11">
+        <v>338.7</v>
+      </c>
+      <c r="H11">
+        <v>666.3</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>134.3</v>
+      </c>
+      <c r="K11">
+        <v>53.8</v>
+      </c>
+      <c r="L11">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M11">
+        <v>1.6457904</v>
+      </c>
+      <c r="N11">
+        <v>78.85420960000002</v>
+      </c>
+      <c r="O11">
+        <v>7.096878864000002</v>
+      </c>
+      <c r="P11">
+        <v>71.75733073600001</v>
+      </c>
+      <c r="Q11">
+        <v>125.557330736</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0640078388641825</v>
+      </c>
+      <c r="T11">
+        <v>0.7984336061829137</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.09</v>
+      </c>
+      <c r="W11">
+        <v>0.014742</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>48.91266834464463</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05958316175633473</v>
+      </c>
+      <c r="C12">
+        <v>1079.947523319737</v>
+      </c>
+      <c r="D12">
+        <v>854.1275233197367</v>
+      </c>
+      <c r="E12">
+        <v>-349.62</v>
+      </c>
+      <c r="F12">
+        <v>112.88</v>
+      </c>
+      <c r="G12">
+        <v>338.7</v>
+      </c>
+      <c r="H12">
+        <v>666.3</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>134.3</v>
+      </c>
+      <c r="K12">
+        <v>53.8</v>
+      </c>
+      <c r="L12">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M12">
+        <v>1.828656</v>
+      </c>
+      <c r="N12">
+        <v>78.67134400000002</v>
+      </c>
+      <c r="O12">
+        <v>7.080420960000001</v>
+      </c>
+      <c r="P12">
+        <v>71.59092304000002</v>
+      </c>
+      <c r="Q12">
+        <v>125.39092304</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06456551306259414</v>
+      </c>
+      <c r="T12">
+        <v>0.8065725828004765</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.09</v>
+      </c>
+      <c r="W12">
+        <v>0.014742</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>44.02140151018017</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05959241014626338</v>
+      </c>
+      <c r="C13">
+        <v>1068.60195513017</v>
+      </c>
+      <c r="D13">
+        <v>854.0699551301698</v>
+      </c>
+      <c r="E13">
+        <v>-338.332</v>
+      </c>
+      <c r="F13">
+        <v>124.168</v>
+      </c>
+      <c r="G13">
+        <v>338.7</v>
+      </c>
+      <c r="H13">
+        <v>666.3</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>134.3</v>
+      </c>
+      <c r="K13">
+        <v>53.8</v>
+      </c>
+      <c r="L13">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M13">
+        <v>2.0115216</v>
+      </c>
+      <c r="N13">
+        <v>78.48847840000002</v>
+      </c>
+      <c r="O13">
+        <v>7.063963056000001</v>
+      </c>
+      <c r="P13">
+        <v>71.42451534400001</v>
+      </c>
+      <c r="Q13">
+        <v>125.224515344</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.06513571926546448</v>
+      </c>
+      <c r="T13">
+        <v>0.8148944577689957</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.09</v>
+      </c>
+      <c r="W13">
+        <v>0.014742</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>40.01945591834561</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05960165853619204</v>
+      </c>
+      <c r="C14">
+        <v>1057.256394700271</v>
+      </c>
+      <c r="D14">
+        <v>854.012394700271</v>
+      </c>
+      <c r="E14">
+        <v>-327.044</v>
+      </c>
+      <c r="F14">
+        <v>135.456</v>
+      </c>
+      <c r="G14">
+        <v>338.7</v>
+      </c>
+      <c r="H14">
+        <v>666.3</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>134.3</v>
+      </c>
+      <c r="K14">
+        <v>53.8</v>
+      </c>
+      <c r="L14">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M14">
+        <v>2.1943872</v>
+      </c>
+      <c r="N14">
+        <v>78.30561280000002</v>
+      </c>
+      <c r="O14">
+        <v>7.047505152000001</v>
+      </c>
+      <c r="P14">
+        <v>71.25810764800002</v>
+      </c>
+      <c r="Q14">
+        <v>125.058107648</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.06571888470021824</v>
+      </c>
+      <c r="T14">
+        <v>0.8234054662595269</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.09</v>
+      </c>
+      <c r="W14">
+        <v>0.014742</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>36.68450125848348</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05961090692612071</v>
+      </c>
+      <c r="C15">
+        <v>1045.910842028472</v>
+      </c>
+      <c r="D15">
+        <v>853.9548420284716</v>
+      </c>
+      <c r="E15">
+        <v>-315.756</v>
+      </c>
+      <c r="F15">
+        <v>146.744</v>
+      </c>
+      <c r="G15">
+        <v>338.7</v>
+      </c>
+      <c r="H15">
+        <v>666.3</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>134.3</v>
+      </c>
+      <c r="K15">
+        <v>53.8</v>
+      </c>
+      <c r="L15">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M15">
+        <v>2.3772528</v>
+      </c>
+      <c r="N15">
+        <v>78.12274720000002</v>
+      </c>
+      <c r="O15">
+        <v>7.031047248000002</v>
+      </c>
+      <c r="P15">
+        <v>71.09169995200001</v>
+      </c>
+      <c r="Q15">
+        <v>124.891699952</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06631545623692035</v>
+      </c>
+      <c r="T15">
+        <v>0.8321121301176565</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.09</v>
+      </c>
+      <c r="W15">
+        <v>0.014742</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>33.86261654629244</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05962015531604935</v>
+      </c>
+      <c r="C16">
+        <v>1034.565297113203</v>
+      </c>
+      <c r="D16">
+        <v>853.8972971132033</v>
+      </c>
+      <c r="E16">
+        <v>-304.468</v>
+      </c>
+      <c r="F16">
+        <v>158.032</v>
+      </c>
+      <c r="G16">
+        <v>338.7</v>
+      </c>
+      <c r="H16">
+        <v>666.3</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>134.3</v>
+      </c>
+      <c r="K16">
+        <v>53.8</v>
+      </c>
+      <c r="L16">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M16">
+        <v>2.5601184</v>
+      </c>
+      <c r="N16">
+        <v>77.93988160000002</v>
+      </c>
+      <c r="O16">
+        <v>7.014589344000002</v>
+      </c>
+      <c r="P16">
+        <v>70.92529225600002</v>
+      </c>
+      <c r="Q16">
+        <v>124.725292256</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06692590153028995</v>
+      </c>
+      <c r="T16">
+        <v>0.8410212745306261</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.09</v>
+      </c>
+      <c r="W16">
+        <v>0.014742</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>31.44385822155726</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05962940370597801</v>
+      </c>
+      <c r="C17">
+        <v>1023.219759952898</v>
+      </c>
+      <c r="D17">
+        <v>853.839759952898</v>
+      </c>
+      <c r="E17">
+        <v>-293.18</v>
+      </c>
+      <c r="F17">
+        <v>169.32</v>
+      </c>
+      <c r="G17">
+        <v>338.7</v>
+      </c>
+      <c r="H17">
+        <v>666.3</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>134.3</v>
+      </c>
+      <c r="K17">
+        <v>53.8</v>
+      </c>
+      <c r="L17">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M17">
+        <v>2.742984</v>
+      </c>
+      <c r="N17">
+        <v>77.75701600000002</v>
+      </c>
+      <c r="O17">
+        <v>6.998131440000002</v>
+      </c>
+      <c r="P17">
+        <v>70.75888456000001</v>
+      </c>
+      <c r="Q17">
+        <v>124.55888456</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06755071024232707</v>
+      </c>
+      <c r="T17">
+        <v>0.8501400458709599</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.09</v>
+      </c>
+      <c r="W17">
+        <v>0.014742</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>29.34760100678678</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05963865209590668</v>
+      </c>
+      <c r="C18">
+        <v>1011.874230545988</v>
+      </c>
+      <c r="D18">
+        <v>853.7822305459883</v>
+      </c>
+      <c r="E18">
+        <v>-281.892</v>
+      </c>
+      <c r="F18">
+        <v>180.608</v>
+      </c>
+      <c r="G18">
+        <v>338.7</v>
+      </c>
+      <c r="H18">
+        <v>666.3</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>134.3</v>
+      </c>
+      <c r="K18">
+        <v>53.8</v>
+      </c>
+      <c r="L18">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M18">
+        <v>2.9258496</v>
+      </c>
+      <c r="N18">
+        <v>77.57415040000001</v>
+      </c>
+      <c r="O18">
+        <v>6.981673536000001</v>
+      </c>
+      <c r="P18">
+        <v>70.59247686400001</v>
+      </c>
+      <c r="Q18">
+        <v>124.392476864</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06819039535226985</v>
+      </c>
+      <c r="T18">
+        <v>0.8594759308146349</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.09</v>
+      </c>
+      <c r="W18">
+        <v>0.014742</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>27.5133759438626</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05964790048583533</v>
+      </c>
+      <c r="C19">
+        <v>1000.528708890907</v>
+      </c>
+      <c r="D19">
+        <v>853.7247088909072</v>
+      </c>
+      <c r="E19">
+        <v>-270.604</v>
+      </c>
+      <c r="F19">
+        <v>191.896</v>
+      </c>
+      <c r="G19">
+        <v>338.7</v>
+      </c>
+      <c r="H19">
+        <v>666.3</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>134.3</v>
+      </c>
+      <c r="K19">
+        <v>53.8</v>
+      </c>
+      <c r="L19">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M19">
+        <v>3.1087152</v>
+      </c>
+      <c r="N19">
+        <v>77.39128480000001</v>
+      </c>
+      <c r="O19">
+        <v>6.965215632</v>
+      </c>
+      <c r="P19">
+        <v>70.42606916800001</v>
+      </c>
+      <c r="Q19">
+        <v>124.226069168</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06884549456124739</v>
+      </c>
+      <c r="T19">
+        <v>0.86903677684129</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.09</v>
+      </c>
+      <c r="W19">
+        <v>0.014742</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>25.89494206481186</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.059657148875764</v>
+      </c>
+      <c r="C20">
+        <v>989.1831949860878</v>
+      </c>
+      <c r="D20">
+        <v>853.6671949860877</v>
+      </c>
+      <c r="E20">
+        <v>-259.316</v>
+      </c>
+      <c r="F20">
+        <v>203.184</v>
+      </c>
+      <c r="G20">
+        <v>338.7</v>
+      </c>
+      <c r="H20">
+        <v>666.3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>134.3</v>
+      </c>
+      <c r="K20">
+        <v>53.8</v>
+      </c>
+      <c r="L20">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M20">
+        <v>3.2915808</v>
+      </c>
+      <c r="N20">
+        <v>77.20841920000001</v>
+      </c>
+      <c r="O20">
+        <v>6.948757728</v>
+      </c>
+      <c r="P20">
+        <v>70.259661472</v>
+      </c>
+      <c r="Q20">
+        <v>124.059661472</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06951657179971218</v>
+      </c>
+      <c r="T20">
+        <v>0.878830814234449</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.09</v>
+      </c>
+      <c r="W20">
+        <v>0.014742</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>24.45633417232231</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05966639726569265</v>
+      </c>
+      <c r="C21">
+        <v>977.837688829964</v>
+      </c>
+      <c r="D21">
+        <v>853.6096888299639</v>
+      </c>
+      <c r="E21">
+        <v>-248.028</v>
+      </c>
+      <c r="F21">
+        <v>214.472</v>
+      </c>
+      <c r="G21">
+        <v>338.7</v>
+      </c>
+      <c r="H21">
+        <v>666.3</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>134.3</v>
+      </c>
+      <c r="K21">
+        <v>53.8</v>
+      </c>
+      <c r="L21">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M21">
+        <v>3.474446399999999</v>
+      </c>
+      <c r="N21">
+        <v>77.02555360000001</v>
+      </c>
+      <c r="O21">
+        <v>6.932299824</v>
+      </c>
+      <c r="P21">
+        <v>70.09325377600001</v>
+      </c>
+      <c r="Q21">
+        <v>123.893253776</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.07020421884653413</v>
+      </c>
+      <c r="T21">
+        <v>0.8888666797113896</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.09</v>
+      </c>
+      <c r="W21">
+        <v>0.014742</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>23.16915868956851</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05967564565562129</v>
+      </c>
+      <c r="C22">
+        <v>966.4921904209698</v>
+      </c>
+      <c r="D22">
+        <v>853.5521904209699</v>
+      </c>
+      <c r="E22">
+        <v>-236.74</v>
+      </c>
+      <c r="F22">
+        <v>225.76</v>
+      </c>
+      <c r="G22">
+        <v>338.7</v>
+      </c>
+      <c r="H22">
+        <v>666.3</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>134.3</v>
+      </c>
+      <c r="K22">
+        <v>53.8</v>
+      </c>
+      <c r="L22">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M22">
+        <v>3.657312</v>
+      </c>
+      <c r="N22">
+        <v>76.84268800000001</v>
+      </c>
+      <c r="O22">
+        <v>6.915841920000001</v>
+      </c>
+      <c r="P22">
+        <v>69.92684608</v>
+      </c>
+      <c r="Q22">
+        <v>123.72684608</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.07090905706952662</v>
+      </c>
+      <c r="T22">
+        <v>0.8991534418252537</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.09</v>
+      </c>
+      <c r="W22">
+        <v>0.014742</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>22.01070075509008</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05968489404554996</v>
+      </c>
+      <c r="C23">
+        <v>955.1466997575399</v>
+      </c>
+      <c r="D23">
+        <v>853.4946997575399</v>
+      </c>
+      <c r="E23">
+        <v>-225.452</v>
+      </c>
+      <c r="F23">
+        <v>237.048</v>
+      </c>
+      <c r="G23">
+        <v>338.7</v>
+      </c>
+      <c r="H23">
+        <v>666.3</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>134.3</v>
+      </c>
+      <c r="K23">
+        <v>53.8</v>
+      </c>
+      <c r="L23">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M23">
+        <v>3.840177599999999</v>
+      </c>
+      <c r="N23">
+        <v>76.65982240000001</v>
+      </c>
+      <c r="O23">
+        <v>6.899384016000001</v>
+      </c>
+      <c r="P23">
+        <v>69.76043838400001</v>
+      </c>
+      <c r="Q23">
+        <v>123.560438384</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.07163173929816451</v>
+      </c>
+      <c r="T23">
+        <v>0.9097006282964308</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.09</v>
+      </c>
+      <c r="W23">
+        <v>0.014742</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>20.96257214770484</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05969414243547862</v>
+      </c>
+      <c r="C24">
+        <v>943.8012168381092</v>
+      </c>
+      <c r="D24">
+        <v>853.4372168381093</v>
+      </c>
+      <c r="E24">
+        <v>-214.164</v>
+      </c>
+      <c r="F24">
+        <v>248.336</v>
+      </c>
+      <c r="G24">
+        <v>338.7</v>
+      </c>
+      <c r="H24">
+        <v>666.3</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>134.3</v>
+      </c>
+      <c r="K24">
+        <v>53.8</v>
+      </c>
+      <c r="L24">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M24">
+        <v>4.023043199999999</v>
+      </c>
+      <c r="N24">
+        <v>76.47695680000001</v>
+      </c>
+      <c r="O24">
+        <v>6.882926112000001</v>
+      </c>
+      <c r="P24">
+        <v>69.594030688</v>
+      </c>
+      <c r="Q24">
+        <v>123.394030688</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.07237295184035721</v>
+      </c>
+      <c r="T24">
+        <v>0.9205182554463561</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.09</v>
+      </c>
+      <c r="W24">
+        <v>0.014742</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>20.0097279591728</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05970339082540727</v>
+      </c>
+      <c r="C25">
+        <v>932.4557416611135</v>
+      </c>
+      <c r="D25">
+        <v>853.3797416611136</v>
+      </c>
+      <c r="E25">
+        <v>-202.876</v>
+      </c>
+      <c r="F25">
+        <v>259.624</v>
+      </c>
+      <c r="G25">
+        <v>338.7</v>
+      </c>
+      <c r="H25">
+        <v>666.3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>134.3</v>
+      </c>
+      <c r="K25">
+        <v>53.8</v>
+      </c>
+      <c r="L25">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M25">
+        <v>4.2059088</v>
+      </c>
+      <c r="N25">
+        <v>76.29409120000001</v>
+      </c>
+      <c r="O25">
+        <v>6.866468208000001</v>
+      </c>
+      <c r="P25">
+        <v>69.42762299200001</v>
+      </c>
+      <c r="Q25">
+        <v>123.227622992</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07313341665637307</v>
+      </c>
+      <c r="T25">
+        <v>0.9316168599248509</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.09</v>
+      </c>
+      <c r="W25">
+        <v>0.014742</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>19.13973978703485</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.05971263921533593</v>
+      </c>
+      <c r="C26">
+        <v>921.1102742249882</v>
+      </c>
+      <c r="D26">
+        <v>853.3222742249883</v>
+      </c>
+      <c r="E26">
+        <v>-191.588</v>
+      </c>
+      <c r="F26">
+        <v>270.912</v>
+      </c>
+      <c r="G26">
+        <v>338.7</v>
+      </c>
+      <c r="H26">
+        <v>666.3</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>134.3</v>
+      </c>
+      <c r="K26">
+        <v>53.8</v>
+      </c>
+      <c r="L26">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M26">
+        <v>4.388774399999999</v>
+      </c>
+      <c r="N26">
+        <v>76.11122560000001</v>
+      </c>
+      <c r="O26">
+        <v>6.850010304</v>
+      </c>
+      <c r="P26">
+        <v>69.26121529600002</v>
+      </c>
+      <c r="Q26">
+        <v>123.061215296</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07391389370438937</v>
+      </c>
+      <c r="T26">
+        <v>0.9430075329422534</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.09</v>
+      </c>
+      <c r="W26">
+        <v>0.014742</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>18.34225062924174</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05972188760526458</v>
+      </c>
+      <c r="C27">
+        <v>909.7648145281696</v>
+      </c>
+      <c r="D27">
+        <v>853.2648145281697</v>
+      </c>
+      <c r="E27">
+        <v>-180.3</v>
+      </c>
+      <c r="F27">
+        <v>282.2</v>
+      </c>
+      <c r="G27">
+        <v>338.7</v>
+      </c>
+      <c r="H27">
+        <v>666.3</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>134.3</v>
+      </c>
+      <c r="K27">
+        <v>53.8</v>
+      </c>
+      <c r="L27">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M27">
+        <v>4.571639999999999</v>
+      </c>
+      <c r="N27">
+        <v>75.92836000000001</v>
+      </c>
+      <c r="O27">
+        <v>6.833552400000001</v>
+      </c>
+      <c r="P27">
+        <v>69.09480760000001</v>
+      </c>
+      <c r="Q27">
+        <v>122.8948076</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07471518347368611</v>
+      </c>
+      <c r="T27">
+        <v>0.95470195724012</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.09</v>
+      </c>
+      <c r="W27">
+        <v>0.014742</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>17.60856060407207</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.05973113599519325</v>
+      </c>
+      <c r="C28">
+        <v>898.4193625690948</v>
+      </c>
+      <c r="D28">
+        <v>853.2073625690948</v>
+      </c>
+      <c r="E28">
+        <v>-169.012</v>
+      </c>
+      <c r="F28">
+        <v>293.488</v>
+      </c>
+      <c r="G28">
+        <v>338.7</v>
+      </c>
+      <c r="H28">
+        <v>666.3</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>134.3</v>
+      </c>
+      <c r="K28">
+        <v>53.8</v>
+      </c>
+      <c r="L28">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M28">
+        <v>4.7545056</v>
+      </c>
+      <c r="N28">
+        <v>75.74549440000001</v>
+      </c>
+      <c r="O28">
+        <v>6.817094496000001</v>
+      </c>
+      <c r="P28">
+        <v>68.92839990400002</v>
+      </c>
+      <c r="Q28">
+        <v>122.728399904</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07553812972323412</v>
+      </c>
+      <c r="T28">
+        <v>0.9667124470595506</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.09</v>
+      </c>
+      <c r="W28">
+        <v>0.014742</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>16.93130827314621</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05974038438512189</v>
+      </c>
+      <c r="C29">
+        <v>887.0739183462006</v>
+      </c>
+      <c r="D29">
+        <v>853.1499183462007</v>
+      </c>
+      <c r="E29">
+        <v>-157.724</v>
+      </c>
+      <c r="F29">
+        <v>304.776</v>
+      </c>
+      <c r="G29">
+        <v>338.7</v>
+      </c>
+      <c r="H29">
+        <v>666.3</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>134.3</v>
+      </c>
+      <c r="K29">
+        <v>53.8</v>
+      </c>
+      <c r="L29">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M29">
+        <v>4.9373712</v>
+      </c>
+      <c r="N29">
+        <v>75.56262880000001</v>
+      </c>
+      <c r="O29">
+        <v>6.800636592000001</v>
+      </c>
+      <c r="P29">
+        <v>68.76199220800001</v>
+      </c>
+      <c r="Q29">
+        <v>122.561992208</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07638362244537246</v>
+      </c>
+      <c r="T29">
+        <v>0.979051991394582</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.09</v>
+      </c>
+      <c r="W29">
+        <v>0.014742</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>16.30422278154821</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05974963277505056</v>
+      </c>
+      <c r="C30">
+        <v>875.7284818579244</v>
+      </c>
+      <c r="D30">
+        <v>853.0924818579246</v>
+      </c>
+      <c r="E30">
+        <v>-146.436</v>
+      </c>
+      <c r="F30">
+        <v>316.064</v>
+      </c>
+      <c r="G30">
+        <v>338.7</v>
+      </c>
+      <c r="H30">
+        <v>666.3</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>134.3</v>
+      </c>
+      <c r="K30">
+        <v>53.8</v>
+      </c>
+      <c r="L30">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M30">
+        <v>5.1202368</v>
+      </c>
+      <c r="N30">
+        <v>75.37976320000001</v>
+      </c>
+      <c r="O30">
+        <v>6.784178688000001</v>
+      </c>
+      <c r="P30">
+        <v>68.59558451200002</v>
+      </c>
+      <c r="Q30">
+        <v>122.395584512</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07725260107645911</v>
+      </c>
+      <c r="T30">
+        <v>0.991734300850031</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.09</v>
+      </c>
+      <c r="W30">
+        <v>0.014742</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>15.72192911077863</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05975888116497921</v>
+      </c>
+      <c r="C31">
+        <v>864.3830531027046</v>
+      </c>
+      <c r="D31">
+        <v>853.0350531027045</v>
+      </c>
+      <c r="E31">
+        <v>-135.148</v>
+      </c>
+      <c r="F31">
+        <v>327.352</v>
+      </c>
+      <c r="G31">
+        <v>338.7</v>
+      </c>
+      <c r="H31">
+        <v>666.3</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>134.3</v>
+      </c>
+      <c r="K31">
+        <v>53.8</v>
+      </c>
+      <c r="L31">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M31">
+        <v>5.303102399999999</v>
+      </c>
+      <c r="N31">
+        <v>75.19689760000001</v>
+      </c>
+      <c r="O31">
+        <v>6.767720784000001</v>
+      </c>
+      <c r="P31">
+        <v>68.42917681600001</v>
+      </c>
+      <c r="Q31">
+        <v>122.229176816</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07814605797884396</v>
+      </c>
+      <c r="T31">
+        <v>1.004773858459154</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.09</v>
+      </c>
+      <c r="W31">
+        <v>0.014742</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>15.17979362420006</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05976812955490787</v>
+      </c>
+      <c r="C32">
+        <v>853.0376320789791</v>
+      </c>
+      <c r="D32">
+        <v>852.9776320789791</v>
+      </c>
+      <c r="E32">
+        <v>-123.86</v>
+      </c>
+      <c r="F32">
+        <v>338.64</v>
+      </c>
+      <c r="G32">
+        <v>338.7</v>
+      </c>
+      <c r="H32">
+        <v>666.3</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>134.3</v>
+      </c>
+      <c r="K32">
+        <v>53.8</v>
+      </c>
+      <c r="L32">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M32">
+        <v>5.485968</v>
+      </c>
+      <c r="N32">
+        <v>75.01403200000001</v>
+      </c>
+      <c r="O32">
+        <v>6.751262880000001</v>
+      </c>
+      <c r="P32">
+        <v>68.26276912000002</v>
+      </c>
+      <c r="Q32">
+        <v>122.06276912</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07906504222129697</v>
+      </c>
+      <c r="T32">
+        <v>1.01818597485711</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.09</v>
+      </c>
+      <c r="W32">
+        <v>0.014742</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>14.67380050339339</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05977737794483652</v>
+      </c>
+      <c r="C33">
+        <v>841.692218785187</v>
+      </c>
+      <c r="D33">
+        <v>852.9202187851871</v>
+      </c>
+      <c r="E33">
+        <v>-112.572</v>
+      </c>
+      <c r="F33">
+        <v>349.928</v>
+      </c>
+      <c r="G33">
+        <v>338.7</v>
+      </c>
+      <c r="H33">
+        <v>666.3</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>134.3</v>
+      </c>
+      <c r="K33">
+        <v>53.8</v>
+      </c>
+      <c r="L33">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M33">
+        <v>5.668833599999999</v>
+      </c>
+      <c r="N33">
+        <v>74.83116640000001</v>
+      </c>
+      <c r="O33">
+        <v>6.734804976000001</v>
+      </c>
+      <c r="P33">
+        <v>68.09636142400001</v>
+      </c>
+      <c r="Q33">
+        <v>121.896361424</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.08001066368816888</v>
+      </c>
+      <c r="T33">
+        <v>1.031986848252108</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.09</v>
+      </c>
+      <c r="W33">
+        <v>0.014742</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>14.20045210005812</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05978662633476517</v>
+      </c>
+      <c r="C34">
+        <v>830.3468132197676</v>
+      </c>
+      <c r="D34">
+        <v>852.8628132197675</v>
+      </c>
+      <c r="E34">
+        <v>-101.284</v>
+      </c>
+      <c r="F34">
+        <v>361.216</v>
+      </c>
+      <c r="G34">
+        <v>338.7</v>
+      </c>
+      <c r="H34">
+        <v>666.3</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>134.3</v>
+      </c>
+      <c r="K34">
+        <v>53.8</v>
+      </c>
+      <c r="L34">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M34">
+        <v>5.8516992</v>
+      </c>
+      <c r="N34">
+        <v>74.64830080000002</v>
+      </c>
+      <c r="O34">
+        <v>6.718347072000001</v>
+      </c>
+      <c r="P34">
+        <v>67.92995372800002</v>
+      </c>
+      <c r="Q34">
+        <v>121.729953728</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.08098409755112526</v>
+      </c>
+      <c r="T34">
+        <v>1.046193629688135</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.09</v>
+      </c>
+      <c r="W34">
+        <v>0.014742</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>13.7566879719313</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06027635472469382</v>
+      </c>
+      <c r="C35">
+        <v>816.0300253760489</v>
+      </c>
+      <c r="D35">
+        <v>849.8340253760489</v>
+      </c>
+      <c r="E35">
+        <v>-89.99599999999998</v>
+      </c>
+      <c r="F35">
+        <v>372.504</v>
+      </c>
+      <c r="G35">
+        <v>338.7</v>
+      </c>
+      <c r="H35">
+        <v>666.3</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>134.3</v>
+      </c>
+      <c r="K35">
+        <v>53.8</v>
+      </c>
+      <c r="L35">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M35">
+        <v>6.6305712</v>
+      </c>
+      <c r="N35">
+        <v>73.86942880000001</v>
+      </c>
+      <c r="O35">
+        <v>6.648248592000001</v>
+      </c>
+      <c r="P35">
+        <v>67.22118020800001</v>
+      </c>
+      <c r="Q35">
+        <v>121.021180208</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.08198658914133408</v>
+      </c>
+      <c r="T35">
+        <v>1.060824494152103</v>
+      </c>
+      <c r="U35">
+        <v>0.0178</v>
+      </c>
+      <c r="V35">
+        <v>0.09</v>
+      </c>
+      <c r="W35">
+        <v>0.016198</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>12.14073381792507</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.0603001631146225</v>
+      </c>
+      <c r="C36">
+        <v>804.5953275892815</v>
+      </c>
+      <c r="D36">
+        <v>849.6873275892815</v>
+      </c>
+      <c r="E36">
+        <v>-78.70799999999997</v>
+      </c>
+      <c r="F36">
+        <v>383.792</v>
+      </c>
+      <c r="G36">
+        <v>338.7</v>
+      </c>
+      <c r="H36">
+        <v>666.3</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>134.3</v>
+      </c>
+      <c r="K36">
+        <v>53.8</v>
+      </c>
+      <c r="L36">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M36">
+        <v>6.831497600000001</v>
+      </c>
+      <c r="N36">
+        <v>73.66850240000001</v>
+      </c>
+      <c r="O36">
+        <v>6.630165216000001</v>
+      </c>
+      <c r="P36">
+        <v>67.03833718400001</v>
+      </c>
+      <c r="Q36">
+        <v>120.838337184</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.08301945926457954</v>
+      </c>
+      <c r="T36">
+        <v>1.075898718145283</v>
+      </c>
+      <c r="U36">
+        <v>0.0178</v>
+      </c>
+      <c r="V36">
+        <v>0.09</v>
+      </c>
+      <c r="W36">
+        <v>0.016198</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>11.78365341151551</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.06032397150455115</v>
+      </c>
+      <c r="C37">
+        <v>793.1606804395229</v>
+      </c>
+      <c r="D37">
+        <v>849.540680439523</v>
+      </c>
+      <c r="E37">
+        <v>-67.41999999999996</v>
+      </c>
+      <c r="F37">
+        <v>395.08</v>
+      </c>
+      <c r="G37">
+        <v>338.7</v>
+      </c>
+      <c r="H37">
+        <v>666.3</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>134.3</v>
+      </c>
+      <c r="K37">
+        <v>53.8</v>
+      </c>
+      <c r="L37">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M37">
+        <v>7.032424000000001</v>
+      </c>
+      <c r="N37">
+        <v>73.46757600000001</v>
+      </c>
+      <c r="O37">
+        <v>6.61208184</v>
+      </c>
+      <c r="P37">
+        <v>66.85549416000001</v>
+      </c>
+      <c r="Q37">
+        <v>120.65549416</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08408411000700178</v>
+      </c>
+      <c r="T37">
+        <v>1.091436764415176</v>
+      </c>
+      <c r="U37">
+        <v>0.0178</v>
+      </c>
+      <c r="V37">
+        <v>0.09</v>
+      </c>
+      <c r="W37">
+        <v>0.016198</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>11.44697759975792</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.06034777989447981</v>
+      </c>
+      <c r="C38">
+        <v>781.7260839005596</v>
+      </c>
+      <c r="D38">
+        <v>849.3940839005596</v>
+      </c>
+      <c r="E38">
+        <v>-56.13200000000001</v>
+      </c>
+      <c r="F38">
+        <v>406.368</v>
+      </c>
+      <c r="G38">
+        <v>338.7</v>
+      </c>
+      <c r="H38">
+        <v>666.3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>134.3</v>
+      </c>
+      <c r="K38">
+        <v>53.8</v>
+      </c>
+      <c r="L38">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M38">
+        <v>7.2333504</v>
+      </c>
+      <c r="N38">
+        <v>73.26664960000001</v>
+      </c>
+      <c r="O38">
+        <v>6.593998464</v>
+      </c>
+      <c r="P38">
+        <v>66.67265113600001</v>
+      </c>
+      <c r="Q38">
+        <v>120.472651136</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08518203108512469</v>
+      </c>
+      <c r="T38">
+        <v>1.107460374631002</v>
+      </c>
+      <c r="U38">
+        <v>0.0178</v>
+      </c>
+      <c r="V38">
+        <v>0.09</v>
+      </c>
+      <c r="W38">
+        <v>0.016198</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>11.12900599976465</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.06037158828440847</v>
+      </c>
+      <c r="C39">
+        <v>770.2915379461956</v>
+      </c>
+      <c r="D39">
+        <v>849.2475379461955</v>
+      </c>
+      <c r="E39">
+        <v>-44.84399999999999</v>
+      </c>
+      <c r="F39">
+        <v>417.656</v>
+      </c>
+      <c r="G39">
+        <v>338.7</v>
+      </c>
+      <c r="H39">
+        <v>666.3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>134.3</v>
+      </c>
+      <c r="K39">
+        <v>53.8</v>
+      </c>
+      <c r="L39">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M39">
+        <v>7.4342768</v>
+      </c>
+      <c r="N39">
+        <v>73.06572320000001</v>
+      </c>
+      <c r="O39">
+        <v>6.575915088</v>
+      </c>
+      <c r="P39">
+        <v>66.48980811200001</v>
+      </c>
+      <c r="Q39">
+        <v>120.289808112</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.08631480680064836</v>
+      </c>
+      <c r="T39">
+        <v>1.123992670885427</v>
+      </c>
+      <c r="U39">
+        <v>0.0178</v>
+      </c>
+      <c r="V39">
+        <v>0.09</v>
+      </c>
+      <c r="W39">
+        <v>0.016198</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>10.82822205382506</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.06115615667433712</v>
+      </c>
+      <c r="C40">
+        <v>754.2024738045607</v>
+      </c>
+      <c r="D40">
+        <v>844.4464738045607</v>
+      </c>
+      <c r="E40">
+        <v>-33.55600000000004</v>
+      </c>
+      <c r="F40">
+        <v>428.944</v>
+      </c>
+      <c r="G40">
+        <v>338.7</v>
+      </c>
+      <c r="H40">
+        <v>666.3</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>134.3</v>
+      </c>
+      <c r="K40">
+        <v>53.8</v>
+      </c>
+      <c r="L40">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M40">
+        <v>8.578879999999998</v>
+      </c>
+      <c r="N40">
+        <v>71.92112000000002</v>
+      </c>
+      <c r="O40">
+        <v>6.472900800000001</v>
+      </c>
+      <c r="P40">
+        <v>65.44821920000001</v>
+      </c>
+      <c r="Q40">
+        <v>119.2482192</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08748412366828567</v>
+      </c>
+      <c r="T40">
+        <v>1.141058267019026</v>
+      </c>
+      <c r="U40">
+        <v>0.02</v>
+      </c>
+      <c r="V40">
+        <v>0.09</v>
+      </c>
+      <c r="W40">
+        <v>0.0182</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>9.383509269275248</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.06119998506426579</v>
+      </c>
+      <c r="C41">
+        <v>742.6478721042404</v>
+      </c>
+      <c r="D41">
+        <v>844.1798721042404</v>
+      </c>
+      <c r="E41">
+        <v>-22.26800000000003</v>
+      </c>
+      <c r="F41">
+        <v>440.232</v>
+      </c>
+      <c r="G41">
+        <v>338.7</v>
+      </c>
+      <c r="H41">
+        <v>666.3</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>134.3</v>
+      </c>
+      <c r="K41">
+        <v>53.8</v>
+      </c>
+      <c r="L41">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M41">
+        <v>8.804639999999997</v>
+      </c>
+      <c r="N41">
+        <v>71.69536000000002</v>
+      </c>
+      <c r="O41">
+        <v>6.452582400000002</v>
+      </c>
+      <c r="P41">
+        <v>65.24277760000003</v>
+      </c>
+      <c r="Q41">
+        <v>119.0427776</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08869177879387834</v>
+      </c>
+      <c r="T41">
+        <v>1.158683390894711</v>
+      </c>
+      <c r="U41">
+        <v>0.02</v>
+      </c>
+      <c r="V41">
+        <v>0.09</v>
+      </c>
+      <c r="W41">
+        <v>0.0182</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>9.14290646749896</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.06124381345419444</v>
+      </c>
+      <c r="C42">
+        <v>731.0934386893857</v>
+      </c>
+      <c r="D42">
+        <v>843.9134386893858</v>
+      </c>
+      <c r="E42">
+        <v>-10.98000000000002</v>
+      </c>
+      <c r="F42">
+        <v>451.52</v>
+      </c>
+      <c r="G42">
+        <v>338.7</v>
+      </c>
+      <c r="H42">
+        <v>666.3</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>134.3</v>
+      </c>
+      <c r="K42">
+        <v>53.8</v>
+      </c>
+      <c r="L42">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M42">
+        <v>9.030399999999998</v>
+      </c>
+      <c r="N42">
+        <v>71.46960000000001</v>
+      </c>
+      <c r="O42">
+        <v>6.432264000000001</v>
+      </c>
+      <c r="P42">
+        <v>65.03733600000001</v>
+      </c>
+      <c r="Q42">
+        <v>118.837336</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.08993968909032407</v>
+      </c>
+      <c r="T42">
+        <v>1.176896018899585</v>
+      </c>
+      <c r="U42">
+        <v>0.02</v>
+      </c>
+      <c r="V42">
+        <v>0.09</v>
+      </c>
+      <c r="W42">
+        <v>0.0182</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>8.914333805811484</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.06128764184412309</v>
+      </c>
+      <c r="C43">
+        <v>719.5391734007083</v>
+      </c>
+      <c r="D43">
+        <v>843.6471734007083</v>
+      </c>
+      <c r="E43">
+        <v>0.3079999999999927</v>
+      </c>
+      <c r="F43">
+        <v>462.808</v>
+      </c>
+      <c r="G43">
+        <v>338.7</v>
+      </c>
+      <c r="H43">
+        <v>666.3</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>134.3</v>
+      </c>
+      <c r="K43">
+        <v>53.8</v>
+      </c>
+      <c r="L43">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M43">
+        <v>9.256159999999998</v>
+      </c>
+      <c r="N43">
+        <v>71.24384000000002</v>
+      </c>
+      <c r="O43">
+        <v>6.411945600000002</v>
+      </c>
+      <c r="P43">
+        <v>64.83189440000002</v>
+      </c>
+      <c r="Q43">
+        <v>118.6318944</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.09122990143071712</v>
+      </c>
+      <c r="T43">
+        <v>1.195726024124964</v>
+      </c>
+      <c r="U43">
+        <v>0.02</v>
+      </c>
+      <c r="V43">
+        <v>0.09</v>
+      </c>
+      <c r="W43">
+        <v>0.0182</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>8.696911030059987</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.06133147023405176</v>
+      </c>
+      <c r="C44">
+        <v>707.9850760791205</v>
+      </c>
+      <c r="D44">
+        <v>843.3810760791205</v>
+      </c>
+      <c r="E44">
+        <v>11.59599999999995</v>
+      </c>
+      <c r="F44">
+        <v>474.0959999999999</v>
+      </c>
+      <c r="G44">
+        <v>338.7</v>
+      </c>
+      <c r="H44">
+        <v>666.3</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>134.3</v>
+      </c>
+      <c r="K44">
+        <v>53.8</v>
+      </c>
+      <c r="L44">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M44">
+        <v>9.481919999999997</v>
+      </c>
+      <c r="N44">
+        <v>71.01808000000001</v>
+      </c>
+      <c r="O44">
+        <v>6.391627200000001</v>
+      </c>
+      <c r="P44">
+        <v>64.62645280000001</v>
+      </c>
+      <c r="Q44">
+        <v>118.4264528</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.09256460385181337</v>
+      </c>
+      <c r="T44">
+        <v>1.215205339875355</v>
+      </c>
+      <c r="U44">
+        <v>0.02</v>
+      </c>
+      <c r="V44">
+        <v>0.09</v>
+      </c>
+      <c r="W44">
+        <v>0.0182</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>8.489841719820461</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.06137529862398041</v>
+      </c>
+      <c r="C45">
+        <v>696.4311465657352</v>
+      </c>
+      <c r="D45">
+        <v>843.1151465657351</v>
+      </c>
+      <c r="E45">
+        <v>22.88399999999996</v>
+      </c>
+      <c r="F45">
+        <v>485.384</v>
+      </c>
+      <c r="G45">
+        <v>338.7</v>
+      </c>
+      <c r="H45">
+        <v>666.3</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>134.3</v>
+      </c>
+      <c r="K45">
+        <v>53.8</v>
+      </c>
+      <c r="L45">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M45">
+        <v>9.707679999999998</v>
+      </c>
+      <c r="N45">
+        <v>70.79232000000002</v>
+      </c>
+      <c r="O45">
+        <v>6.371308800000001</v>
+      </c>
+      <c r="P45">
+        <v>64.42101120000001</v>
+      </c>
+      <c r="Q45">
+        <v>118.2210112</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09394613793680773</v>
+      </c>
+      <c r="T45">
+        <v>1.235368140388918</v>
+      </c>
+      <c r="U45">
+        <v>0.02</v>
+      </c>
+      <c r="V45">
+        <v>0.09</v>
+      </c>
+      <c r="W45">
+        <v>0.0182</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>8.292403540289754</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.06141912701390907</v>
+      </c>
+      <c r="C46">
+        <v>684.8773847018658</v>
+      </c>
+      <c r="D46">
+        <v>842.8493847018658</v>
+      </c>
+      <c r="E46">
+        <v>34.17199999999997</v>
+      </c>
+      <c r="F46">
+        <v>496.672</v>
+      </c>
+      <c r="G46">
+        <v>338.7</v>
+      </c>
+      <c r="H46">
+        <v>666.3</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>134.3</v>
+      </c>
+      <c r="K46">
+        <v>53.8</v>
+      </c>
+      <c r="L46">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M46">
+        <v>9.933439999999997</v>
+      </c>
+      <c r="N46">
+        <v>70.56656000000001</v>
+      </c>
+      <c r="O46">
+        <v>6.350990400000001</v>
+      </c>
+      <c r="P46">
+        <v>64.21556960000001</v>
+      </c>
+      <c r="Q46">
+        <v>118.0155696</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.0953770125248376</v>
+      </c>
+      <c r="T46">
+        <v>1.256251040920823</v>
+      </c>
+      <c r="U46">
+        <v>0.02</v>
+      </c>
+      <c r="V46">
+        <v>0.09</v>
+      </c>
+      <c r="W46">
+        <v>0.0182</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>8.103939823464986</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.06146295540383773</v>
+      </c>
+      <c r="C47">
+        <v>673.3237903290258</v>
+      </c>
+      <c r="D47">
+        <v>842.5837903290258</v>
+      </c>
+      <c r="E47">
+        <v>45.45999999999998</v>
+      </c>
+      <c r="F47">
+        <v>507.96</v>
+      </c>
+      <c r="G47">
+        <v>338.7</v>
+      </c>
+      <c r="H47">
+        <v>666.3</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>134.3</v>
+      </c>
+      <c r="K47">
+        <v>53.8</v>
+      </c>
+      <c r="L47">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M47">
+        <v>10.1592</v>
+      </c>
+      <c r="N47">
+        <v>70.34080000000002</v>
+      </c>
+      <c r="O47">
+        <v>6.330672000000001</v>
+      </c>
+      <c r="P47">
+        <v>64.01012800000001</v>
+      </c>
+      <c r="Q47">
+        <v>117.810128</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.09685991891606859</v>
+      </c>
+      <c r="T47">
+        <v>1.277893319653888</v>
+      </c>
+      <c r="U47">
+        <v>0.02</v>
+      </c>
+      <c r="V47">
+        <v>0.09</v>
+      </c>
+      <c r="W47">
+        <v>0.0182</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>7.92385227183243</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.06196724379376638</v>
+      </c>
+      <c r="C48">
+        <v>658.991867257115</v>
+      </c>
+      <c r="D48">
+        <v>839.539867257115</v>
+      </c>
+      <c r="E48">
+        <v>56.74800000000005</v>
+      </c>
+      <c r="F48">
+        <v>519.248</v>
+      </c>
+      <c r="G48">
+        <v>338.7</v>
+      </c>
+      <c r="H48">
+        <v>666.3</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>134.3</v>
+      </c>
+      <c r="K48">
+        <v>53.8</v>
+      </c>
+      <c r="L48">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M48">
+        <v>10.9561328</v>
+      </c>
+      <c r="N48">
+        <v>69.54386720000001</v>
+      </c>
+      <c r="O48">
+        <v>6.258948048000001</v>
+      </c>
+      <c r="P48">
+        <v>63.28491915200001</v>
+      </c>
+      <c r="Q48">
+        <v>117.084919152</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09839774776623403</v>
+      </c>
+      <c r="T48">
+        <v>1.300337164265955</v>
+      </c>
+      <c r="U48">
+        <v>0.0211</v>
+      </c>
+      <c r="V48">
+        <v>0.09</v>
+      </c>
+      <c r="W48">
+        <v>0.019201</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>7.347483046207691</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.06202108218369504</v>
+      </c>
+      <c r="C49">
+        <v>647.380193475522</v>
+      </c>
+      <c r="D49">
+        <v>839.216193475522</v>
+      </c>
+      <c r="E49">
+        <v>68.03600000000006</v>
+      </c>
+      <c r="F49">
+        <v>530.5360000000001</v>
+      </c>
+      <c r="G49">
+        <v>338.7</v>
+      </c>
+      <c r="H49">
+        <v>666.3</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>134.3</v>
+      </c>
+      <c r="K49">
+        <v>53.8</v>
+      </c>
+      <c r="L49">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M49">
+        <v>11.1943096</v>
+      </c>
+      <c r="N49">
+        <v>69.30569040000002</v>
+      </c>
+      <c r="O49">
+        <v>6.237512136000001</v>
+      </c>
+      <c r="P49">
+        <v>63.06817826400002</v>
+      </c>
+      <c r="Q49">
+        <v>116.868178264</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09999360789376423</v>
+      </c>
+      <c r="T49">
+        <v>1.323627946410553</v>
+      </c>
+      <c r="U49">
+        <v>0.0211</v>
+      </c>
+      <c r="V49">
+        <v>0.09</v>
+      </c>
+      <c r="W49">
+        <v>0.019201</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>7.191153619692634</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.06207492057362369</v>
+      </c>
+      <c r="C50">
+        <v>635.7687691742595</v>
+      </c>
+      <c r="D50">
+        <v>838.8927691742595</v>
+      </c>
+      <c r="E50">
+        <v>79.32399999999996</v>
+      </c>
+      <c r="F50">
+        <v>541.824</v>
+      </c>
+      <c r="G50">
+        <v>338.7</v>
+      </c>
+      <c r="H50">
+        <v>666.3</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>134.3</v>
+      </c>
+      <c r="K50">
+        <v>53.8</v>
+      </c>
+      <c r="L50">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M50">
+        <v>11.4324864</v>
+      </c>
+      <c r="N50">
+        <v>69.06751360000001</v>
+      </c>
+      <c r="O50">
+        <v>6.216076224000001</v>
+      </c>
+      <c r="P50">
+        <v>62.85143737600001</v>
+      </c>
+      <c r="Q50">
+        <v>116.651437376</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1016508472569686</v>
+      </c>
+      <c r="T50">
+        <v>1.347814527868405</v>
+      </c>
+      <c r="U50">
+        <v>0.0211</v>
+      </c>
+      <c r="V50">
+        <v>0.09</v>
+      </c>
+      <c r="W50">
+        <v>0.019201</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>7.041337919282372</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.06212875896355234</v>
+      </c>
+      <c r="C51">
+        <v>624.1575940649981</v>
+      </c>
+      <c r="D51">
+        <v>838.5695940649981</v>
+      </c>
+      <c r="E51">
+        <v>90.61199999999997</v>
+      </c>
+      <c r="F51">
+        <v>553.112</v>
+      </c>
+      <c r="G51">
+        <v>338.7</v>
+      </c>
+      <c r="H51">
+        <v>666.3</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>134.3</v>
+      </c>
+      <c r="K51">
+        <v>53.8</v>
+      </c>
+      <c r="L51">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M51">
+        <v>11.6706632</v>
+      </c>
+      <c r="N51">
+        <v>68.82933680000002</v>
+      </c>
+      <c r="O51">
+        <v>6.194640312000002</v>
+      </c>
+      <c r="P51">
+        <v>62.63469648800002</v>
+      </c>
+      <c r="Q51">
+        <v>116.434696488</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1033730763991222</v>
+      </c>
+      <c r="T51">
+        <v>1.37294960271676</v>
+      </c>
+      <c r="U51">
+        <v>0.0211</v>
+      </c>
+      <c r="V51">
+        <v>0.09</v>
+      </c>
+      <c r="W51">
+        <v>0.019201</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>6.897637145419467</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.06218259735348101</v>
+      </c>
+      <c r="C52">
+        <v>612.5466678598522</v>
+      </c>
+      <c r="D52">
+        <v>838.2466678598521</v>
+      </c>
+      <c r="E52">
+        <v>101.9</v>
+      </c>
+      <c r="F52">
+        <v>564.4</v>
+      </c>
+      <c r="G52">
+        <v>338.7</v>
+      </c>
+      <c r="H52">
+        <v>666.3</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>134.3</v>
+      </c>
+      <c r="K52">
+        <v>53.8</v>
+      </c>
+      <c r="L52">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M52">
+        <v>11.90884</v>
+      </c>
+      <c r="N52">
+        <v>68.59116000000002</v>
+      </c>
+      <c r="O52">
+        <v>6.173204400000001</v>
+      </c>
+      <c r="P52">
+        <v>62.41795560000001</v>
+      </c>
+      <c r="Q52">
+        <v>116.2179556</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.105164194706962</v>
+      </c>
+      <c r="T52">
+        <v>1.399090080559051</v>
+      </c>
+      <c r="U52">
+        <v>0.0211</v>
+      </c>
+      <c r="V52">
+        <v>0.09</v>
+      </c>
+      <c r="W52">
+        <v>0.019201</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>6.759684402511077</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.06223643574340966</v>
+      </c>
+      <c r="C53">
+        <v>600.9359902713801</v>
+      </c>
+      <c r="D53">
+        <v>837.92399027138</v>
+      </c>
+      <c r="E53">
+        <v>113.188</v>
+      </c>
+      <c r="F53">
+        <v>575.688</v>
+      </c>
+      <c r="G53">
+        <v>338.7</v>
+      </c>
+      <c r="H53">
+        <v>666.3</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>134.3</v>
+      </c>
+      <c r="K53">
+        <v>53.8</v>
+      </c>
+      <c r="L53">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M53">
+        <v>12.1470168</v>
+      </c>
+      <c r="N53">
+        <v>68.35298320000001</v>
+      </c>
+      <c r="O53">
+        <v>6.151768488000001</v>
+      </c>
+      <c r="P53">
+        <v>62.20121471200001</v>
+      </c>
+      <c r="Q53">
+        <v>116.001214712</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1070284198845095</v>
+      </c>
+      <c r="T53">
+        <v>1.426297516680618</v>
+      </c>
+      <c r="U53">
+        <v>0.0211</v>
+      </c>
+      <c r="V53">
+        <v>0.09</v>
+      </c>
+      <c r="W53">
+        <v>0.019201</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>6.627141571089291</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.06229027413333832</v>
+      </c>
+      <c r="C54">
+        <v>589.3255610125819</v>
+      </c>
+      <c r="D54">
+        <v>837.601561012582</v>
+      </c>
+      <c r="E54">
+        <v>124.476</v>
+      </c>
+      <c r="F54">
+        <v>586.976</v>
+      </c>
+      <c r="G54">
+        <v>338.7</v>
+      </c>
+      <c r="H54">
+        <v>666.3</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>134.3</v>
+      </c>
+      <c r="K54">
+        <v>53.8</v>
+      </c>
+      <c r="L54">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M54">
+        <v>12.3851936</v>
+      </c>
+      <c r="N54">
+        <v>68.11480640000002</v>
+      </c>
+      <c r="O54">
+        <v>6.130332576000002</v>
+      </c>
+      <c r="P54">
+        <v>61.98447382400002</v>
+      </c>
+      <c r="Q54">
+        <v>115.784473824</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1089703211111215</v>
+      </c>
+      <c r="T54">
+        <v>1.454638595973917</v>
+      </c>
+      <c r="U54">
+        <v>0.0211</v>
+      </c>
+      <c r="V54">
+        <v>0.09</v>
+      </c>
+      <c r="W54">
+        <v>0.019201</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>6.499696540876036</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.06306756252326697</v>
+      </c>
+      <c r="C55">
+        <v>573.4100081611926</v>
+      </c>
+      <c r="D55">
+        <v>832.9740081611927</v>
+      </c>
+      <c r="E55">
+        <v>135.764</v>
+      </c>
+      <c r="F55">
+        <v>598.264</v>
+      </c>
+      <c r="G55">
+        <v>338.7</v>
+      </c>
+      <c r="H55">
+        <v>666.3</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>134.3</v>
+      </c>
+      <c r="K55">
+        <v>53.8</v>
+      </c>
+      <c r="L55">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M55">
+        <v>13.5207664</v>
+      </c>
+      <c r="N55">
+        <v>66.97923360000001</v>
+      </c>
+      <c r="O55">
+        <v>6.028131024000001</v>
+      </c>
+      <c r="P55">
+        <v>60.95110257600001</v>
+      </c>
+      <c r="Q55">
+        <v>114.751102576</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1109948564324829</v>
+      </c>
+      <c r="T55">
+        <v>1.484185678641399</v>
+      </c>
+      <c r="U55">
+        <v>0.0226</v>
+      </c>
+      <c r="V55">
+        <v>0.09</v>
+      </c>
+      <c r="W55">
+        <v>0.020566</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>5.953804512146591</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.06313505091319564</v>
+      </c>
+      <c r="C56">
+        <v>561.7226303162937</v>
+      </c>
+      <c r="D56">
+        <v>832.5746303162938</v>
+      </c>
+      <c r="E56">
+        <v>147.052</v>
+      </c>
+      <c r="F56">
+        <v>609.552</v>
+      </c>
+      <c r="G56">
+        <v>338.7</v>
+      </c>
+      <c r="H56">
+        <v>666.3</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>134.3</v>
+      </c>
+      <c r="K56">
+        <v>53.8</v>
+      </c>
+      <c r="L56">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M56">
+        <v>13.7758752</v>
+      </c>
+      <c r="N56">
+        <v>66.72412480000001</v>
+      </c>
+      <c r="O56">
+        <v>6.005171232000001</v>
+      </c>
+      <c r="P56">
+        <v>60.71895356800001</v>
+      </c>
+      <c r="Q56">
+        <v>114.518953568</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1131074150286862</v>
+      </c>
+      <c r="T56">
+        <v>1.515017417077033</v>
+      </c>
+      <c r="U56">
+        <v>0.0226</v>
+      </c>
+      <c r="V56">
+        <v>0.09</v>
+      </c>
+      <c r="W56">
+        <v>0.020566</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>5.843548873032764</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.06320253930312428</v>
+      </c>
+      <c r="C57">
+        <v>550.0356352593884</v>
+      </c>
+      <c r="D57">
+        <v>832.1756352593884</v>
+      </c>
+      <c r="E57">
+        <v>158.34</v>
+      </c>
+      <c r="F57">
+        <v>620.84</v>
+      </c>
+      <c r="G57">
+        <v>338.7</v>
+      </c>
+      <c r="H57">
+        <v>666.3</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>134.3</v>
+      </c>
+      <c r="K57">
+        <v>53.8</v>
+      </c>
+      <c r="L57">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M57">
+        <v>14.030984</v>
+      </c>
+      <c r="N57">
+        <v>66.46901600000001</v>
+      </c>
+      <c r="O57">
+        <v>5.98221144</v>
+      </c>
+      <c r="P57">
+        <v>60.48680456000001</v>
+      </c>
+      <c r="Q57">
+        <v>114.28680456</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.115313865118054</v>
+      </c>
+      <c r="T57">
+        <v>1.547219454998694</v>
+      </c>
+      <c r="U57">
+        <v>0.0226</v>
+      </c>
+      <c r="V57">
+        <v>0.09</v>
+      </c>
+      <c r="W57">
+        <v>0.020566</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>5.737302529886715</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.06327002769305294</v>
+      </c>
+      <c r="C58">
+        <v>538.3490224404087</v>
+      </c>
+      <c r="D58">
+        <v>831.7770224404087</v>
+      </c>
+      <c r="E58">
+        <v>169.628</v>
+      </c>
+      <c r="F58">
+        <v>632.128</v>
+      </c>
+      <c r="G58">
+        <v>338.7</v>
+      </c>
+      <c r="H58">
+        <v>666.3</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>134.3</v>
+      </c>
+      <c r="K58">
+        <v>53.8</v>
+      </c>
+      <c r="L58">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M58">
+        <v>14.2860928</v>
+      </c>
+      <c r="N58">
+        <v>66.21390720000001</v>
+      </c>
+      <c r="O58">
+        <v>5.959251648</v>
+      </c>
+      <c r="P58">
+        <v>60.25465555200001</v>
+      </c>
+      <c r="Q58">
+        <v>114.054655552</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1176206083933022</v>
+      </c>
+      <c r="T58">
+        <v>1.580885221916795</v>
+      </c>
+      <c r="U58">
+        <v>0.0226</v>
+      </c>
+      <c r="V58">
+        <v>0.09</v>
+      </c>
+      <c r="W58">
+        <v>0.020566</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>5.63485069899588</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.06333751608298159</v>
+      </c>
+      <c r="C59">
+        <v>526.6627913103408</v>
+      </c>
+      <c r="D59">
+        <v>831.3787913103409</v>
+      </c>
+      <c r="E59">
+        <v>180.9160000000001</v>
+      </c>
+      <c r="F59">
+        <v>643.4160000000001</v>
+      </c>
+      <c r="G59">
+        <v>338.7</v>
+      </c>
+      <c r="H59">
+        <v>666.3</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>134.3</v>
+      </c>
+      <c r="K59">
+        <v>53.8</v>
+      </c>
+      <c r="L59">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M59">
+        <v>14.5412016</v>
+      </c>
+      <c r="N59">
+        <v>65.95879840000001</v>
+      </c>
+      <c r="O59">
+        <v>5.936291856</v>
+      </c>
+      <c r="P59">
+        <v>60.02250654400001</v>
+      </c>
+      <c r="Q59">
+        <v>113.822506544</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1200346420534456</v>
+      </c>
+      <c r="T59">
+        <v>1.616116838458993</v>
+      </c>
+      <c r="U59">
+        <v>0.0226</v>
+      </c>
+      <c r="V59">
+        <v>0.09</v>
+      </c>
+      <c r="W59">
+        <v>0.020566</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>5.535993669188934</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.06340500447291025</v>
+      </c>
+      <c r="C60">
+        <v>514.9769413212223</v>
+      </c>
+      <c r="D60">
+        <v>830.9809413212222</v>
+      </c>
+      <c r="E60">
+        <v>192.204</v>
+      </c>
+      <c r="F60">
+        <v>654.704</v>
+      </c>
+      <c r="G60">
+        <v>338.7</v>
+      </c>
+      <c r="H60">
+        <v>666.3</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>134.3</v>
+      </c>
+      <c r="K60">
+        <v>53.8</v>
+      </c>
+      <c r="L60">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M60">
+        <v>14.7963104</v>
+      </c>
+      <c r="N60">
+        <v>65.70368960000002</v>
+      </c>
+      <c r="O60">
+        <v>5.913332064000001</v>
+      </c>
+      <c r="P60">
+        <v>59.79035753600002</v>
+      </c>
+      <c r="Q60">
+        <v>113.590357536</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1225636296974054</v>
+      </c>
+      <c r="T60">
+        <v>1.653026151027011</v>
+      </c>
+      <c r="U60">
+        <v>0.0226</v>
+      </c>
+      <c r="V60">
+        <v>0.09</v>
+      </c>
+      <c r="W60">
+        <v>0.020566</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>5.440545502478782</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.06347249286283892</v>
+      </c>
+      <c r="C61">
+        <v>503.291471926138</v>
+      </c>
+      <c r="D61">
+        <v>830.583471926138</v>
+      </c>
+      <c r="E61">
+        <v>203.492</v>
+      </c>
+      <c r="F61">
+        <v>665.992</v>
+      </c>
+      <c r="G61">
+        <v>338.7</v>
+      </c>
+      <c r="H61">
+        <v>666.3</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>134.3</v>
+      </c>
+      <c r="K61">
+        <v>53.8</v>
+      </c>
+      <c r="L61">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M61">
+        <v>15.0514192</v>
+      </c>
+      <c r="N61">
+        <v>65.44858080000002</v>
+      </c>
+      <c r="O61">
+        <v>5.890372272000001</v>
+      </c>
+      <c r="P61">
+        <v>59.55820852800002</v>
+      </c>
+      <c r="Q61">
+        <v>113.358208528</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.12521598259229</v>
+      </c>
+      <c r="T61">
+        <v>1.691735917866639</v>
+      </c>
+      <c r="U61">
+        <v>0.0226</v>
+      </c>
+      <c r="V61">
+        <v>0.09</v>
+      </c>
+      <c r="W61">
+        <v>0.020566</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>5.348332866843548</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.06353998125276757</v>
+      </c>
+      <c r="C62">
+        <v>491.6063825792196</v>
+      </c>
+      <c r="D62">
+        <v>830.1863825792196</v>
+      </c>
+      <c r="E62">
+        <v>214.78</v>
+      </c>
+      <c r="F62">
+        <v>677.28</v>
+      </c>
+      <c r="G62">
+        <v>338.7</v>
+      </c>
+      <c r="H62">
+        <v>666.3</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>134.3</v>
+      </c>
+      <c r="K62">
+        <v>53.8</v>
+      </c>
+      <c r="L62">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M62">
+        <v>15.306528</v>
+      </c>
+      <c r="N62">
+        <v>65.19347200000001</v>
+      </c>
+      <c r="O62">
+        <v>5.867412480000001</v>
+      </c>
+      <c r="P62">
+        <v>59.32605952000002</v>
+      </c>
+      <c r="Q62">
+        <v>113.12605952</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1280009531319189</v>
+      </c>
+      <c r="T62">
+        <v>1.732381173048248</v>
+      </c>
+      <c r="U62">
+        <v>0.0226</v>
+      </c>
+      <c r="V62">
+        <v>0.09</v>
+      </c>
+      <c r="W62">
+        <v>0.020566</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>5.259193985729489</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.06360746964269623</v>
+      </c>
+      <c r="C63">
+        <v>479.9216727356418</v>
+      </c>
+      <c r="D63">
+        <v>829.7896727356417</v>
+      </c>
+      <c r="E63">
+        <v>226.068</v>
+      </c>
+      <c r="F63">
+        <v>688.568</v>
+      </c>
+      <c r="G63">
+        <v>338.7</v>
+      </c>
+      <c r="H63">
+        <v>666.3</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>134.3</v>
+      </c>
+      <c r="K63">
+        <v>53.8</v>
+      </c>
+      <c r="L63">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M63">
+        <v>15.5616368</v>
+      </c>
+      <c r="N63">
+        <v>64.93836320000001</v>
+      </c>
+      <c r="O63">
+        <v>5.844452688000001</v>
+      </c>
+      <c r="P63">
+        <v>59.09391051200001</v>
+      </c>
+      <c r="Q63">
+        <v>112.893910512</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1309287426735801</v>
+      </c>
+      <c r="T63">
+        <v>1.775110800290453</v>
+      </c>
+      <c r="U63">
+        <v>0.0226</v>
+      </c>
+      <c r="V63">
+        <v>0.09</v>
+      </c>
+      <c r="W63">
+        <v>0.020566</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>5.172977690881464</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.06367495803262488</v>
+      </c>
+      <c r="C64">
+        <v>468.2373418516197</v>
+      </c>
+      <c r="D64">
+        <v>829.3933418516198</v>
+      </c>
+      <c r="E64">
+        <v>237.356</v>
+      </c>
+      <c r="F64">
+        <v>699.856</v>
+      </c>
+      <c r="G64">
+        <v>338.7</v>
+      </c>
+      <c r="H64">
+        <v>666.3</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>134.3</v>
+      </c>
+      <c r="K64">
+        <v>53.8</v>
+      </c>
+      <c r="L64">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M64">
+        <v>15.8167456</v>
+      </c>
+      <c r="N64">
+        <v>64.68325440000001</v>
+      </c>
+      <c r="O64">
+        <v>5.821492896000001</v>
+      </c>
+      <c r="P64">
+        <v>58.86176150400001</v>
+      </c>
+      <c r="Q64">
+        <v>112.661761504</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1340106264016444</v>
+      </c>
+      <c r="T64">
+        <v>1.820089355282248</v>
+      </c>
+      <c r="U64">
+        <v>0.0226</v>
+      </c>
+      <c r="V64">
+        <v>0.09</v>
+      </c>
+      <c r="W64">
+        <v>0.020566</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>5.089542566834989</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.06374244642255354</v>
+      </c>
+      <c r="C65">
+        <v>456.5533893844079</v>
+      </c>
+      <c r="D65">
+        <v>828.9973893844078</v>
+      </c>
+      <c r="E65">
+        <v>248.644</v>
+      </c>
+      <c r="F65">
+        <v>711.144</v>
+      </c>
+      <c r="G65">
+        <v>338.7</v>
+      </c>
+      <c r="H65">
+        <v>666.3</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>134.3</v>
+      </c>
+      <c r="K65">
+        <v>53.8</v>
+      </c>
+      <c r="L65">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M65">
+        <v>16.0718544</v>
+      </c>
+      <c r="N65">
+        <v>64.42814560000002</v>
+      </c>
+      <c r="O65">
+        <v>5.798533104000001</v>
+      </c>
+      <c r="P65">
+        <v>58.62961249600002</v>
+      </c>
+      <c r="Q65">
+        <v>112.429612496</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1372590984393339</v>
+      </c>
+      <c r="T65">
+        <v>1.867499183516842</v>
+      </c>
+      <c r="U65">
+        <v>0.0226</v>
+      </c>
+      <c r="V65">
+        <v>0.09</v>
+      </c>
+      <c r="W65">
+        <v>0.020566</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>5.008756176885227</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.06380993481248221</v>
+      </c>
+      <c r="C66">
+        <v>444.869814792296</v>
+      </c>
+      <c r="D66">
+        <v>828.6018147922961</v>
+      </c>
+      <c r="E66">
+        <v>259.932</v>
+      </c>
+      <c r="F66">
+        <v>722.432</v>
+      </c>
+      <c r="G66">
+        <v>338.7</v>
+      </c>
+      <c r="H66">
+        <v>666.3</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>134.3</v>
+      </c>
+      <c r="K66">
+        <v>53.8</v>
+      </c>
+      <c r="L66">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M66">
+        <v>16.3269632</v>
+      </c>
+      <c r="N66">
+        <v>64.17303680000002</v>
+      </c>
+      <c r="O66">
+        <v>5.775573312000001</v>
+      </c>
+      <c r="P66">
+        <v>58.39746348800002</v>
+      </c>
+      <c r="Q66">
+        <v>112.197463488</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1406880411457839</v>
+      </c>
+      <c r="T66">
+        <v>1.917542891097803</v>
+      </c>
+      <c r="U66">
+        <v>0.0226</v>
+      </c>
+      <c r="V66">
+        <v>0.09</v>
+      </c>
+      <c r="W66">
+        <v>0.020566</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>4.930494361621396</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.06387742320241085</v>
+      </c>
+      <c r="C67">
+        <v>433.1866175346076</v>
+      </c>
+      <c r="D67">
+        <v>828.2066175346076</v>
+      </c>
+      <c r="E67">
+        <v>271.22</v>
+      </c>
+      <c r="F67">
+        <v>733.72</v>
+      </c>
+      <c r="G67">
+        <v>338.7</v>
+      </c>
+      <c r="H67">
+        <v>666.3</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>134.3</v>
+      </c>
+      <c r="K67">
+        <v>53.8</v>
+      </c>
+      <c r="L67">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M67">
+        <v>16.582072</v>
+      </c>
+      <c r="N67">
+        <v>63.91792800000002</v>
+      </c>
+      <c r="O67">
+        <v>5.752613520000001</v>
+      </c>
+      <c r="P67">
+        <v>58.16531448000001</v>
+      </c>
+      <c r="Q67">
+        <v>111.96531448</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1443129234354596</v>
+      </c>
+      <c r="T67">
+        <v>1.970446239111962</v>
+      </c>
+      <c r="U67">
+        <v>0.0226</v>
+      </c>
+      <c r="V67">
+        <v>0.09</v>
+      </c>
+      <c r="W67">
+        <v>0.020566</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>4.854640602211836</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.0639449115923395</v>
+      </c>
+      <c r="C68">
+        <v>421.5037970716971</v>
+      </c>
+      <c r="D68">
+        <v>827.8117970716971</v>
+      </c>
+      <c r="E68">
+        <v>282.508</v>
+      </c>
+      <c r="F68">
+        <v>745.008</v>
+      </c>
+      <c r="G68">
+        <v>338.7</v>
+      </c>
+      <c r="H68">
+        <v>666.3</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>134.3</v>
+      </c>
+      <c r="K68">
+        <v>53.8</v>
+      </c>
+      <c r="L68">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M68">
+        <v>16.8371808</v>
+      </c>
+      <c r="N68">
+        <v>63.66281920000002</v>
+      </c>
+      <c r="O68">
+        <v>5.729653728000002</v>
+      </c>
+      <c r="P68">
+        <v>57.93316547200001</v>
+      </c>
+      <c r="Q68">
+        <v>111.733165472</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1481510340951162</v>
+      </c>
+      <c r="T68">
+        <v>2.026461548774011</v>
+      </c>
+      <c r="U68">
+        <v>0.0226</v>
+      </c>
+      <c r="V68">
+        <v>0.09</v>
+      </c>
+      <c r="W68">
+        <v>0.020566</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>4.781085441572262</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.06401239998226817</v>
+      </c>
+      <c r="C69">
+        <v>409.8213528649471</v>
+      </c>
+      <c r="D69">
+        <v>827.4173528649472</v>
+      </c>
+      <c r="E69">
+        <v>293.796</v>
+      </c>
+      <c r="F69">
+        <v>756.296</v>
+      </c>
+      <c r="G69">
+        <v>338.7</v>
+      </c>
+      <c r="H69">
+        <v>666.3</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>134.3</v>
+      </c>
+      <c r="K69">
+        <v>53.8</v>
+      </c>
+      <c r="L69">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M69">
+        <v>17.0922896</v>
+      </c>
+      <c r="N69">
+        <v>63.40771040000001</v>
+      </c>
+      <c r="O69">
+        <v>5.706693936000001</v>
+      </c>
+      <c r="P69">
+        <v>57.70101646400001</v>
+      </c>
+      <c r="Q69">
+        <v>111.501016464</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1522217575220248</v>
+      </c>
+      <c r="T69">
+        <v>2.085871725688307</v>
+      </c>
+      <c r="U69">
+        <v>0.0226</v>
+      </c>
+      <c r="V69">
+        <v>0.09</v>
+      </c>
+      <c r="W69">
+        <v>0.020566</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>4.709725957369691</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.06407988837219683</v>
+      </c>
+      <c r="C70">
+        <v>398.1392843767671</v>
+      </c>
+      <c r="D70">
+        <v>827.0232843767672</v>
+      </c>
+      <c r="E70">
+        <v>305.0840000000001</v>
+      </c>
+      <c r="F70">
+        <v>767.5840000000001</v>
+      </c>
+      <c r="G70">
+        <v>338.7</v>
+      </c>
+      <c r="H70">
+        <v>666.3</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>134.3</v>
+      </c>
+      <c r="K70">
+        <v>53.8</v>
+      </c>
+      <c r="L70">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M70">
+        <v>17.3473984</v>
+      </c>
+      <c r="N70">
+        <v>63.15260160000001</v>
+      </c>
+      <c r="O70">
+        <v>5.683734144000001</v>
+      </c>
+      <c r="P70">
+        <v>57.46886745600001</v>
+      </c>
+      <c r="Q70">
+        <v>111.268867456</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1565469011631151</v>
+      </c>
+      <c r="T70">
+        <v>2.148995038659746</v>
+      </c>
+      <c r="U70">
+        <v>0.0226</v>
+      </c>
+      <c r="V70">
+        <v>0.09</v>
+      </c>
+      <c r="W70">
+        <v>0.020566</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>4.640465281526019</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.06414737676212548</v>
+      </c>
+      <c r="C71">
+        <v>386.4575910705896</v>
+      </c>
+      <c r="D71">
+        <v>826.6295910705898</v>
+      </c>
+      <c r="E71">
+        <v>316.3720000000001</v>
+      </c>
+      <c r="F71">
+        <v>778.8720000000001</v>
+      </c>
+      <c r="G71">
+        <v>338.7</v>
+      </c>
+      <c r="H71">
+        <v>666.3</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>134.3</v>
+      </c>
+      <c r="K71">
+        <v>53.8</v>
+      </c>
+      <c r="L71">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M71">
+        <v>17.6025072</v>
+      </c>
+      <c r="N71">
+        <v>62.89749280000001</v>
+      </c>
+      <c r="O71">
+        <v>5.660774352000001</v>
+      </c>
+      <c r="P71">
+        <v>57.236718448</v>
+      </c>
+      <c r="Q71">
+        <v>111.036718448</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1611510863294371</v>
+      </c>
+      <c r="T71">
+        <v>2.216190823435794</v>
+      </c>
+      <c r="U71">
+        <v>0.0226</v>
+      </c>
+      <c r="V71">
+        <v>0.09</v>
+      </c>
+      <c r="W71">
+        <v>0.020566</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>4.573212161503903</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.06421486515205413</v>
+      </c>
+      <c r="C72">
+        <v>374.7762724108686</v>
+      </c>
+      <c r="D72">
+        <v>826.2362724108687</v>
+      </c>
+      <c r="E72">
+        <v>327.6600000000001</v>
+      </c>
+      <c r="F72">
+        <v>790.1600000000001</v>
+      </c>
+      <c r="G72">
+        <v>338.7</v>
+      </c>
+      <c r="H72">
+        <v>666.3</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>134.3</v>
+      </c>
+      <c r="K72">
+        <v>53.8</v>
+      </c>
+      <c r="L72">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M72">
+        <v>17.857616</v>
+      </c>
+      <c r="N72">
+        <v>62.64238400000001</v>
+      </c>
+      <c r="O72">
+        <v>5.637814560000001</v>
+      </c>
+      <c r="P72">
+        <v>57.00456944000001</v>
+      </c>
+      <c r="Q72">
+        <v>110.80456944</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1660622171735138</v>
+      </c>
+      <c r="T72">
+        <v>2.287866327196912</v>
+      </c>
+      <c r="U72">
+        <v>0.0226</v>
+      </c>
+      <c r="V72">
+        <v>0.09</v>
+      </c>
+      <c r="W72">
+        <v>0.020566</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>4.507880559196704</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1209039460620242</v>
+      </c>
+      <c r="C73">
+        <v>127.5589781605937</v>
+      </c>
+      <c r="D73">
+        <v>590.3069781605938</v>
+      </c>
+      <c r="E73">
+        <v>338.948</v>
+      </c>
+      <c r="F73">
+        <v>801.448</v>
+      </c>
+      <c r="G73">
+        <v>338.7</v>
+      </c>
+      <c r="H73">
+        <v>666.3</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>134.3</v>
+      </c>
+      <c r="K73">
+        <v>53.8</v>
+      </c>
+      <c r="L73">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M73">
+        <v>87.357832</v>
+      </c>
+      <c r="N73">
+        <v>-6.857831999999988</v>
+      </c>
+      <c r="O73">
+        <v>-0.6172048799999988</v>
+      </c>
+      <c r="P73">
+        <v>-6.240627119999989</v>
+      </c>
+      <c r="Q73">
+        <v>47.55937288000001</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1721802289731326</v>
+      </c>
+      <c r="T73">
+        <v>2.377155656208177</v>
+      </c>
+      <c r="U73">
+        <v>0.109</v>
+      </c>
+      <c r="V73">
+        <v>0.08293475048693975</v>
+      </c>
+      <c r="W73">
+        <v>0.09996011219692356</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.921497227632664</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1219009460620242</v>
+      </c>
+      <c r="C74">
+        <v>113.3212926193838</v>
+      </c>
+      <c r="D74">
+        <v>587.3572926193839</v>
+      </c>
+      <c r="E74">
+        <v>350.236</v>
+      </c>
+      <c r="F74">
+        <v>812.736</v>
+      </c>
+      <c r="G74">
+        <v>338.7</v>
+      </c>
+      <c r="H74">
+        <v>666.3</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>134.3</v>
+      </c>
+      <c r="K74">
+        <v>53.8</v>
+      </c>
+      <c r="L74">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M74">
+        <v>88.588224</v>
+      </c>
+      <c r="N74">
+        <v>-8.088223999999983</v>
+      </c>
+      <c r="O74">
+        <v>-0.7279401599999984</v>
+      </c>
+      <c r="P74">
+        <v>-7.360283839999984</v>
+      </c>
+      <c r="Q74">
+        <v>46.43971616000001</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1779973800078874</v>
+      </c>
+      <c r="T74">
+        <v>2.462054072501326</v>
+      </c>
+      <c r="U74">
+        <v>0.109</v>
+      </c>
+      <c r="V74">
+        <v>0.08178287895239893</v>
+      </c>
+      <c r="W74">
+        <v>0.1000856661941885</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.9086986550266547</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1228979460620242</v>
+      </c>
+      <c r="C75">
+        <v>99.11293888453849</v>
+      </c>
+      <c r="D75">
+        <v>584.4369388845386</v>
+      </c>
+      <c r="E75">
+        <v>361.524</v>
+      </c>
+      <c r="F75">
+        <v>824.024</v>
+      </c>
+      <c r="G75">
+        <v>338.7</v>
+      </c>
+      <c r="H75">
+        <v>666.3</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>134.3</v>
+      </c>
+      <c r="K75">
+        <v>53.8</v>
+      </c>
+      <c r="L75">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M75">
+        <v>89.81861600000001</v>
+      </c>
+      <c r="N75">
+        <v>-9.318615999999992</v>
+      </c>
+      <c r="O75">
+        <v>-0.8386754399999992</v>
+      </c>
+      <c r="P75">
+        <v>-8.479940559999992</v>
+      </c>
+      <c r="Q75">
+        <v>45.32005944000001</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1842454311192906</v>
+      </c>
+      <c r="T75">
+        <v>2.553241260371746</v>
+      </c>
+      <c r="U75">
+        <v>0.109</v>
+      </c>
+      <c r="V75">
+        <v>0.08066256554209209</v>
+      </c>
+      <c r="W75">
+        <v>0.100207780355912</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.8962507282454676</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1238949460620242</v>
+      </c>
+      <c r="C76">
+        <v>84.93348160541802</v>
+      </c>
+      <c r="D76">
+        <v>581.5454816054181</v>
+      </c>
+      <c r="E76">
+        <v>372.812</v>
+      </c>
+      <c r="F76">
+        <v>835.312</v>
+      </c>
+      <c r="G76">
+        <v>338.7</v>
+      </c>
+      <c r="H76">
+        <v>666.3</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>134.3</v>
+      </c>
+      <c r="K76">
+        <v>53.8</v>
+      </c>
+      <c r="L76">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M76">
+        <v>91.049008</v>
+      </c>
+      <c r="N76">
+        <v>-10.54900799999999</v>
+      </c>
+      <c r="O76">
+        <v>-0.9494107199999987</v>
+      </c>
+      <c r="P76">
+        <v>-9.599597279999987</v>
+      </c>
+      <c r="Q76">
+        <v>44.20040272000001</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.1909741015469556</v>
+      </c>
+      <c r="T76">
+        <v>2.65144284730912</v>
+      </c>
+      <c r="U76">
+        <v>0.109</v>
+      </c>
+      <c r="V76">
+        <v>0.07957253087260435</v>
+      </c>
+      <c r="W76">
+        <v>0.1003265941348861</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.8841392319178262</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1248919460620242</v>
+      </c>
+      <c r="C77">
+        <v>70.78249400442519</v>
+      </c>
+      <c r="D77">
+        <v>578.6824940044252</v>
+      </c>
+      <c r="E77">
+        <v>384.0999999999999</v>
+      </c>
+      <c r="F77">
+        <v>846.5999999999999</v>
+      </c>
+      <c r="G77">
+        <v>338.7</v>
+      </c>
+      <c r="H77">
+        <v>666.3</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>134.3</v>
+      </c>
+      <c r="K77">
+        <v>53.8</v>
+      </c>
+      <c r="L77">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M77">
+        <v>92.2794</v>
+      </c>
+      <c r="N77">
+        <v>-11.77939999999998</v>
+      </c>
+      <c r="O77">
+        <v>-1.060145999999998</v>
+      </c>
+      <c r="P77">
+        <v>-10.71925399999998</v>
+      </c>
+      <c r="Q77">
+        <v>43.08074600000001</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1982410656088338</v>
+      </c>
+      <c r="T77">
+        <v>2.757500561201486</v>
+      </c>
+      <c r="U77">
+        <v>0.109</v>
+      </c>
+      <c r="V77">
+        <v>0.07851156379430298</v>
+      </c>
+      <c r="W77">
+        <v>0.100442239546421</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.8723507088255886</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1258889460620242</v>
+      </c>
+      <c r="C78">
+        <v>56.65955766701018</v>
+      </c>
+      <c r="D78">
+        <v>575.8475576670102</v>
+      </c>
+      <c r="E78">
+        <v>395.3879999999999</v>
+      </c>
+      <c r="F78">
+        <v>857.8879999999999</v>
+      </c>
+      <c r="G78">
+        <v>338.7</v>
+      </c>
+      <c r="H78">
+        <v>666.3</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>134.3</v>
+      </c>
+      <c r="K78">
+        <v>53.8</v>
+      </c>
+      <c r="L78">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M78">
+        <v>93.50979199999999</v>
+      </c>
+      <c r="N78">
+        <v>-13.00979199999998</v>
+      </c>
+      <c r="O78">
+        <v>-1.170881279999998</v>
+      </c>
+      <c r="P78">
+        <v>-11.83891071999998</v>
+      </c>
+      <c r="Q78">
+        <v>41.96108928000002</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2061136100092019</v>
+      </c>
+      <c r="T78">
+        <v>2.872396417918214</v>
+      </c>
+      <c r="U78">
+        <v>0.109</v>
+      </c>
+      <c r="V78">
+        <v>0.07747851690227267</v>
+      </c>
+      <c r="W78">
+        <v>0.1005548416576523</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.8608724100252519</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1268859460620242</v>
+      </c>
+      <c r="C79">
+        <v>42.56426233781895</v>
+      </c>
+      <c r="D79">
+        <v>573.0402623378188</v>
+      </c>
+      <c r="E79">
+        <v>406.6759999999999</v>
+      </c>
+      <c r="F79">
+        <v>869.1759999999999</v>
+      </c>
+      <c r="G79">
+        <v>338.7</v>
+      </c>
+      <c r="H79">
+        <v>666.3</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>134.3</v>
+      </c>
+      <c r="K79">
+        <v>53.8</v>
+      </c>
+      <c r="L79">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M79">
+        <v>94.74018399999999</v>
+      </c>
+      <c r="N79">
+        <v>-14.24018399999997</v>
+      </c>
+      <c r="O79">
+        <v>-1.281616559999997</v>
+      </c>
+      <c r="P79">
+        <v>-12.95856743999997</v>
+      </c>
+      <c r="Q79">
+        <v>40.84143256000002</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2146707234878628</v>
+      </c>
+      <c r="T79">
+        <v>2.997283218697266</v>
+      </c>
+      <c r="U79">
+        <v>0.109</v>
+      </c>
+      <c r="V79">
+        <v>0.07647230239704836</v>
+      </c>
+      <c r="W79">
+        <v>0.1006645190387217</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.8496922488560928</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1278829460620242</v>
+      </c>
+      <c r="C80">
+        <v>28.4962057227749</v>
+      </c>
+      <c r="D80">
+        <v>570.2602057227748</v>
+      </c>
+      <c r="E80">
+        <v>417.9639999999999</v>
+      </c>
+      <c r="F80">
+        <v>880.4639999999999</v>
+      </c>
+      <c r="G80">
+        <v>338.7</v>
+      </c>
+      <c r="H80">
+        <v>666.3</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>134.3</v>
+      </c>
+      <c r="K80">
+        <v>53.8</v>
+      </c>
+      <c r="L80">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M80">
+        <v>95.97057599999999</v>
+      </c>
+      <c r="N80">
+        <v>-15.47057599999998</v>
+      </c>
+      <c r="O80">
+        <v>-1.392351839999998</v>
+      </c>
+      <c r="P80">
+        <v>-14.07822415999998</v>
+      </c>
+      <c r="Q80">
+        <v>39.72177584000001</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2240057563736748</v>
+      </c>
+      <c r="T80">
+        <v>3.133523365001688</v>
+      </c>
+      <c r="U80">
+        <v>0.109</v>
+      </c>
+      <c r="V80">
+        <v>0.07549188826375285</v>
+      </c>
+      <c r="W80">
+        <v>0.1007713841792509</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.8387987584861429</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1288799460620242</v>
+      </c>
+      <c r="C81">
+        <v>14.45499329689346</v>
+      </c>
+      <c r="D81">
+        <v>567.5069932968934</v>
+      </c>
+      <c r="E81">
+        <v>429.252</v>
+      </c>
+      <c r="F81">
+        <v>891.752</v>
+      </c>
+      <c r="G81">
+        <v>338.7</v>
+      </c>
+      <c r="H81">
+        <v>666.3</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>134.3</v>
+      </c>
+      <c r="K81">
+        <v>53.8</v>
+      </c>
+      <c r="L81">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M81">
+        <v>97.20096799999999</v>
+      </c>
+      <c r="N81">
+        <v>-16.70096799999997</v>
+      </c>
+      <c r="O81">
+        <v>-1.503087119999998</v>
+      </c>
+      <c r="P81">
+        <v>-15.19788087999998</v>
+      </c>
+      <c r="Q81">
+        <v>38.60211912000002</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2342298400105165</v>
+      </c>
+      <c r="T81">
+        <v>3.282738763335102</v>
+      </c>
+      <c r="U81">
+        <v>0.109</v>
+      </c>
+      <c r="V81">
+        <v>0.07453629474142687</v>
+      </c>
+      <c r="W81">
+        <v>0.1008755438731845</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.8281810526825208</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1298769460620242</v>
+      </c>
+      <c r="C82">
+        <v>0.4402381176382733</v>
+      </c>
+      <c r="D82">
+        <v>564.7802381176382</v>
+      </c>
+      <c r="E82">
+        <v>440.54</v>
+      </c>
+      <c r="F82">
+        <v>903.04</v>
+      </c>
+      <c r="G82">
+        <v>338.7</v>
+      </c>
+      <c r="H82">
+        <v>666.3</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>134.3</v>
+      </c>
+      <c r="K82">
+        <v>53.8</v>
+      </c>
+      <c r="L82">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M82">
+        <v>98.43136</v>
+      </c>
+      <c r="N82">
+        <v>-17.93135999999998</v>
+      </c>
+      <c r="O82">
+        <v>-1.613822399999999</v>
+      </c>
+      <c r="P82">
+        <v>-16.31753759999998</v>
+      </c>
+      <c r="Q82">
+        <v>37.48246240000002</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2454763320110423</v>
+      </c>
+      <c r="T82">
+        <v>3.446875701501857</v>
+      </c>
+      <c r="U82">
+        <v>0.109</v>
+      </c>
+      <c r="V82">
+        <v>0.07360459105715904</v>
+      </c>
+      <c r="W82">
+        <v>0.1009770995747697</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.8178287895239893</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1308739460620242</v>
+      </c>
+      <c r="C83">
+        <v>-13.54843935636904</v>
+      </c>
+      <c r="D83">
+        <v>562.0795606436309</v>
+      </c>
+      <c r="E83">
+        <v>451.828</v>
+      </c>
+      <c r="F83">
+        <v>914.328</v>
+      </c>
+      <c r="G83">
+        <v>338.7</v>
+      </c>
+      <c r="H83">
+        <v>666.3</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>134.3</v>
+      </c>
+      <c r="K83">
+        <v>53.8</v>
+      </c>
+      <c r="L83">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M83">
+        <v>99.66175199999999</v>
+      </c>
+      <c r="N83">
+        <v>-19.16175199999998</v>
+      </c>
+      <c r="O83">
+        <v>-1.724557679999998</v>
+      </c>
+      <c r="P83">
+        <v>-17.43719431999998</v>
+      </c>
+      <c r="Q83">
+        <v>36.36280568000002</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2579066652747814</v>
+      </c>
+      <c r="T83">
+        <v>3.628290212107219</v>
+      </c>
+      <c r="U83">
+        <v>0.109</v>
+      </c>
+      <c r="V83">
+        <v>0.07269589240213238</v>
+      </c>
+      <c r="W83">
+        <v>0.1010761477281676</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.8077321378014709</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1581126410505477</v>
+      </c>
+      <c r="C84">
+        <v>-89.78310631435738</v>
+      </c>
+      <c r="D84">
+        <v>497.1328936856426</v>
+      </c>
+      <c r="E84">
+        <v>463.116</v>
+      </c>
+      <c r="F84">
+        <v>925.616</v>
+      </c>
+      <c r="G84">
+        <v>338.7</v>
+      </c>
+      <c r="H84">
+        <v>666.3</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>134.3</v>
+      </c>
+      <c r="K84">
+        <v>53.8</v>
+      </c>
+      <c r="L84">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M84">
+        <v>129.7713632</v>
+      </c>
+      <c r="N84">
+        <v>-49.27136319999998</v>
+      </c>
+      <c r="O84">
+        <v>-4.434422687999998</v>
+      </c>
+      <c r="P84">
+        <v>-44.83694051199998</v>
+      </c>
+      <c r="Q84">
+        <v>8.963059488000013</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2753720077262889</v>
+      </c>
+      <c r="T84">
+        <v>3.88318816907818</v>
+      </c>
+      <c r="U84">
+        <v>0.1402</v>
+      </c>
+      <c r="V84">
+        <v>0.05582895811022814</v>
+      </c>
+      <c r="W84">
+        <v>0.132372780072946</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.6203217567803126</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1594216410505477</v>
+      </c>
+      <c r="C85">
+        <v>-103.8163445760722</v>
+      </c>
+      <c r="D85">
+        <v>494.3876554239278</v>
+      </c>
+      <c r="E85">
+        <v>474.404</v>
+      </c>
+      <c r="F85">
+        <v>936.904</v>
+      </c>
+      <c r="G85">
+        <v>338.7</v>
+      </c>
+      <c r="H85">
+        <v>666.3</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>134.3</v>
+      </c>
+      <c r="K85">
+        <v>53.8</v>
+      </c>
+      <c r="L85">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M85">
+        <v>131.3539408</v>
+      </c>
+      <c r="N85">
+        <v>-50.85394079999999</v>
+      </c>
+      <c r="O85">
+        <v>-4.576854671999999</v>
+      </c>
+      <c r="P85">
+        <v>-46.27708612799999</v>
+      </c>
+      <c r="Q85">
+        <v>7.522913872000004</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2910233022984235</v>
+      </c>
+      <c r="T85">
+        <v>4.111611002553367</v>
+      </c>
+      <c r="U85">
+        <v>0.1402</v>
+      </c>
+      <c r="V85">
+        <v>0.05515632006070732</v>
+      </c>
+      <c r="W85">
+        <v>0.1324670839274888</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.6128480006745257</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1607306410505477</v>
+      </c>
+      <c r="C86">
+        <v>-117.8194301560351</v>
+      </c>
+      <c r="D86">
+        <v>491.6725698439648</v>
+      </c>
+      <c r="E86">
+        <v>485.6919999999999</v>
+      </c>
+      <c r="F86">
+        <v>948.1919999999999</v>
+      </c>
+      <c r="G86">
+        <v>338.7</v>
+      </c>
+      <c r="H86">
+        <v>666.3</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>134.3</v>
+      </c>
+      <c r="K86">
+        <v>53.8</v>
+      </c>
+      <c r="L86">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M86">
+        <v>132.9365184</v>
+      </c>
+      <c r="N86">
+        <v>-52.43651839999997</v>
+      </c>
+      <c r="O86">
+        <v>-4.719286655999997</v>
+      </c>
+      <c r="P86">
+        <v>-47.71723174399997</v>
+      </c>
+      <c r="Q86">
+        <v>6.082768256000023</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3086310086920749</v>
+      </c>
+      <c r="T86">
+        <v>4.36858669021295</v>
+      </c>
+      <c r="U86">
+        <v>0.1402</v>
+      </c>
+      <c r="V86">
+        <v>0.05449969720284176</v>
+      </c>
+      <c r="W86">
+        <v>0.1325591424521616</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.6055521911426862</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1620396410505477</v>
+      </c>
+      <c r="C87">
+        <v>-131.7928571197868</v>
+      </c>
+      <c r="D87">
+        <v>488.9871428802131</v>
+      </c>
+      <c r="E87">
+        <v>496.9799999999999</v>
+      </c>
+      <c r="F87">
+        <v>959.4799999999999</v>
+      </c>
+      <c r="G87">
+        <v>338.7</v>
+      </c>
+      <c r="H87">
+        <v>666.3</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>134.3</v>
+      </c>
+      <c r="K87">
+        <v>53.8</v>
+      </c>
+      <c r="L87">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M87">
+        <v>134.519096</v>
+      </c>
+      <c r="N87">
+        <v>-54.01909599999998</v>
+      </c>
+      <c r="O87">
+        <v>-4.861718639999998</v>
+      </c>
+      <c r="P87">
+        <v>-49.15737735999998</v>
+      </c>
+      <c r="Q87">
+        <v>4.64262264000002</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3285864092715465</v>
+      </c>
+      <c r="T87">
+        <v>4.659825802893813</v>
+      </c>
+      <c r="U87">
+        <v>0.1402</v>
+      </c>
+      <c r="V87">
+        <v>0.05385852429457303</v>
+      </c>
+      <c r="W87">
+        <v>0.1326490348939008</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.5984280477174782</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1633486410505477</v>
+      </c>
+      <c r="C88">
+        <v>-145.7371087975143</v>
+      </c>
+      <c r="D88">
+        <v>486.3308912024856</v>
+      </c>
+      <c r="E88">
+        <v>508.2679999999999</v>
+      </c>
+      <c r="F88">
+        <v>970.7679999999999</v>
+      </c>
+      <c r="G88">
+        <v>338.7</v>
+      </c>
+      <c r="H88">
+        <v>666.3</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>134.3</v>
+      </c>
+      <c r="K88">
+        <v>53.8</v>
+      </c>
+      <c r="L88">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M88">
+        <v>136.1016736</v>
+      </c>
+      <c r="N88">
+        <v>-55.60167359999996</v>
+      </c>
+      <c r="O88">
+        <v>-5.004150623999996</v>
+      </c>
+      <c r="P88">
+        <v>-50.59752297599996</v>
+      </c>
+      <c r="Q88">
+        <v>3.202477024000039</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3513925813623713</v>
+      </c>
+      <c r="T88">
+        <v>4.992670503100515</v>
+      </c>
+      <c r="U88">
+        <v>0.1402</v>
+      </c>
+      <c r="V88">
+        <v>0.05323226238417102</v>
+      </c>
+      <c r="W88">
+        <v>0.1327368368137392</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.5914695820463447</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1646576410505477</v>
+      </c>
+      <c r="C89">
+        <v>-159.6526580740561</v>
+      </c>
+      <c r="D89">
+        <v>483.7033419259438</v>
+      </c>
+      <c r="E89">
+        <v>519.5559999999999</v>
+      </c>
+      <c r="F89">
+        <v>982.0559999999999</v>
+      </c>
+      <c r="G89">
+        <v>338.7</v>
+      </c>
+      <c r="H89">
+        <v>666.3</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>134.3</v>
+      </c>
+      <c r="K89">
+        <v>53.8</v>
+      </c>
+      <c r="L89">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M89">
+        <v>137.6842512</v>
+      </c>
+      <c r="N89">
+        <v>-57.18425119999996</v>
+      </c>
+      <c r="O89">
+        <v>-5.146582607999997</v>
+      </c>
+      <c r="P89">
+        <v>-52.03766859199997</v>
+      </c>
+      <c r="Q89">
+        <v>1.76233140800003</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.3777073953133229</v>
+      </c>
+      <c r="T89">
+        <v>5.376722080262092</v>
+      </c>
+      <c r="U89">
+        <v>0.1402</v>
+      </c>
+      <c r="V89">
+        <v>0.05262039729929549</v>
+      </c>
+      <c r="W89">
+        <v>0.1328226202986388</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.5846710811032833</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1659666410505477</v>
+      </c>
+      <c r="C90">
+        <v>-173.5399676695573</v>
+      </c>
+      <c r="D90">
+        <v>481.1040323304427</v>
+      </c>
+      <c r="E90">
+        <v>530.8439999999999</v>
+      </c>
+      <c r="F90">
+        <v>993.3439999999999</v>
+      </c>
+      <c r="G90">
+        <v>338.7</v>
+      </c>
+      <c r="H90">
+        <v>666.3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>134.3</v>
+      </c>
+      <c r="K90">
+        <v>53.8</v>
+      </c>
+      <c r="L90">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M90">
+        <v>139.2668288</v>
+      </c>
+      <c r="N90">
+        <v>-58.76682879999997</v>
+      </c>
+      <c r="O90">
+        <v>-5.289014591999997</v>
+      </c>
+      <c r="P90">
+        <v>-53.47781420799997</v>
+      </c>
+      <c r="Q90">
+        <v>0.3221857920000275</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4084080115894332</v>
+      </c>
+      <c r="T90">
+        <v>5.824782253617268</v>
+      </c>
+      <c r="U90">
+        <v>0.1402</v>
+      </c>
+      <c r="V90">
+        <v>0.05202243823907623</v>
+      </c>
+      <c r="W90">
+        <v>0.1329064541588815</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.5780270915452914</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1672756410505477</v>
+      </c>
+      <c r="C91">
+        <v>-187.3994904111223</v>
+      </c>
+      <c r="D91">
+        <v>478.5325095888776</v>
+      </c>
+      <c r="E91">
+        <v>542.1319999999999</v>
+      </c>
+      <c r="F91">
+        <v>1004.632</v>
+      </c>
+      <c r="G91">
+        <v>338.7</v>
+      </c>
+      <c r="H91">
+        <v>666.3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>134.3</v>
+      </c>
+      <c r="K91">
+        <v>53.8</v>
+      </c>
+      <c r="L91">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M91">
+        <v>140.8494064</v>
+      </c>
+      <c r="N91">
+        <v>-60.34940639999998</v>
+      </c>
+      <c r="O91">
+        <v>-5.431446575999998</v>
+      </c>
+      <c r="P91">
+        <v>-54.91795982399998</v>
+      </c>
+      <c r="Q91">
+        <v>-1.117959823999982</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4446905580975635</v>
+      </c>
+      <c r="T91">
+        <v>6.354307913037019</v>
+      </c>
+      <c r="U91">
+        <v>0.1402</v>
+      </c>
+      <c r="V91">
+        <v>0.05143791646110907</v>
+      </c>
+      <c r="W91">
+        <v>0.1329884041121525</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.5715324051234342</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1685846410505477</v>
+      </c>
+      <c r="C92">
+        <v>-201.231669495804</v>
+      </c>
+      <c r="D92">
+        <v>475.988330504196</v>
+      </c>
+      <c r="E92">
+        <v>553.42</v>
+      </c>
+      <c r="F92">
+        <v>1015.92</v>
+      </c>
+      <c r="G92">
+        <v>338.7</v>
+      </c>
+      <c r="H92">
+        <v>666.3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>134.3</v>
+      </c>
+      <c r="K92">
+        <v>53.8</v>
+      </c>
+      <c r="L92">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M92">
+        <v>142.431984</v>
+      </c>
+      <c r="N92">
+        <v>-61.93198399999996</v>
+      </c>
+      <c r="O92">
+        <v>-5.573878559999996</v>
+      </c>
+      <c r="P92">
+        <v>-56.35810543999996</v>
+      </c>
+      <c r="Q92">
+        <v>-2.558105439999963</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.48822961390732</v>
+      </c>
+      <c r="T92">
+        <v>6.989738704340723</v>
+      </c>
+      <c r="U92">
+        <v>0.1402</v>
+      </c>
+      <c r="V92">
+        <v>0.05086638405598564</v>
+      </c>
+      <c r="W92">
+        <v>0.1330685329553508</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.5651820450665073</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.1698936410505477</v>
+      </c>
+      <c r="C93">
+        <v>-215.0369387452461</v>
+      </c>
+      <c r="D93">
+        <v>473.4710612547541</v>
+      </c>
+      <c r="E93">
+        <v>564.7080000000001</v>
+      </c>
+      <c r="F93">
+        <v>1027.208</v>
+      </c>
+      <c r="G93">
+        <v>338.7</v>
+      </c>
+      <c r="H93">
+        <v>666.3</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>134.3</v>
+      </c>
+      <c r="K93">
+        <v>53.8</v>
+      </c>
+      <c r="L93">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M93">
+        <v>144.0145616</v>
+      </c>
+      <c r="N93">
+        <v>-63.51456159999999</v>
+      </c>
+      <c r="O93">
+        <v>-5.716310543999999</v>
+      </c>
+      <c r="P93">
+        <v>-57.798251056</v>
+      </c>
+      <c r="Q93">
+        <v>-3.998251056000001</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5414440154525778</v>
+      </c>
+      <c r="T93">
+        <v>7.766376338156359</v>
+      </c>
+      <c r="U93">
+        <v>0.1402</v>
+      </c>
+      <c r="V93">
+        <v>0.05030741280262316</v>
+      </c>
+      <c r="W93">
+        <v>0.1331469007250722</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.5589712533624795</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1712026410505477</v>
+      </c>
+      <c r="C94">
+        <v>-228.8157228522887</v>
+      </c>
+      <c r="D94">
+        <v>470.9802771477114</v>
+      </c>
+      <c r="E94">
+        <v>575.9960000000001</v>
+      </c>
+      <c r="F94">
+        <v>1038.496</v>
+      </c>
+      <c r="G94">
+        <v>338.7</v>
+      </c>
+      <c r="H94">
+        <v>666.3</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>134.3</v>
+      </c>
+      <c r="K94">
+        <v>53.8</v>
+      </c>
+      <c r="L94">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M94">
+        <v>145.5971392</v>
+      </c>
+      <c r="N94">
+        <v>-65.0971392</v>
+      </c>
+      <c r="O94">
+        <v>-5.858742528</v>
+      </c>
+      <c r="P94">
+        <v>-59.238396672</v>
+      </c>
+      <c r="Q94">
+        <v>-5.438396672000003</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.6079620173841502</v>
+      </c>
+      <c r="T94">
+        <v>8.737173380425906</v>
+      </c>
+      <c r="U94">
+        <v>0.1402</v>
+      </c>
+      <c r="V94">
+        <v>0.04976059309824681</v>
+      </c>
+      <c r="W94">
+        <v>0.1332235648476258</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.552895478869409</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.1725116410505477</v>
+      </c>
+      <c r="C95">
+        <v>-242.5684376198312</v>
+      </c>
+      <c r="D95">
+        <v>468.5155623801688</v>
+      </c>
+      <c r="E95">
+        <v>587.2840000000001</v>
+      </c>
+      <c r="F95">
+        <v>1049.784</v>
+      </c>
+      <c r="G95">
+        <v>338.7</v>
+      </c>
+      <c r="H95">
+        <v>666.3</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>134.3</v>
+      </c>
+      <c r="K95">
+        <v>53.8</v>
+      </c>
+      <c r="L95">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M95">
+        <v>147.1797168</v>
+      </c>
+      <c r="N95">
+        <v>-66.67971679999998</v>
+      </c>
+      <c r="O95">
+        <v>-6.001174511999998</v>
+      </c>
+      <c r="P95">
+        <v>-60.67854228799998</v>
+      </c>
+      <c r="Q95">
+        <v>-6.878542287999984</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6934851627247431</v>
+      </c>
+      <c r="T95">
+        <v>9.985341006201036</v>
+      </c>
+      <c r="U95">
+        <v>0.1402</v>
+      </c>
+      <c r="V95">
+        <v>0.04922553295740546</v>
+      </c>
+      <c r="W95">
+        <v>0.1332985802793717</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.546950366193394</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1738206410505477</v>
+      </c>
+      <c r="C96">
+        <v>-256.2954901922336</v>
+      </c>
+      <c r="D96">
+        <v>466.0765098077665</v>
+      </c>
+      <c r="E96">
+        <v>598.5720000000001</v>
+      </c>
+      <c r="F96">
+        <v>1061.072</v>
+      </c>
+      <c r="G96">
+        <v>338.7</v>
+      </c>
+      <c r="H96">
+        <v>666.3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>134.3</v>
+      </c>
+      <c r="K96">
+        <v>53.8</v>
+      </c>
+      <c r="L96">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M96">
+        <v>148.7622944</v>
+      </c>
+      <c r="N96">
+        <v>-68.26229439999999</v>
+      </c>
+      <c r="O96">
+        <v>-6.143606495999999</v>
+      </c>
+      <c r="P96">
+        <v>-62.11868790399999</v>
+      </c>
+      <c r="Q96">
+        <v>-8.318687903999994</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.8075160231788672</v>
+      </c>
+      <c r="T96">
+        <v>11.64956450723455</v>
+      </c>
+      <c r="U96">
+        <v>0.1402</v>
+      </c>
+      <c r="V96">
+        <v>0.04870185707487986</v>
+      </c>
+      <c r="W96">
+        <v>0.1333719996381018</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.5411317452764429</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1751296410505477</v>
+      </c>
+      <c r="C97">
+        <v>-269.9972792795269</v>
+      </c>
+      <c r="D97">
+        <v>463.6627207204733</v>
+      </c>
+      <c r="E97">
+        <v>609.8600000000001</v>
+      </c>
+      <c r="F97">
+        <v>1072.36</v>
+      </c>
+      <c r="G97">
+        <v>338.7</v>
+      </c>
+      <c r="H97">
+        <v>666.3</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>134.3</v>
+      </c>
+      <c r="K97">
+        <v>53.8</v>
+      </c>
+      <c r="L97">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M97">
+        <v>150.344872</v>
+      </c>
+      <c r="N97">
+        <v>-69.844872</v>
+      </c>
+      <c r="O97">
+        <v>-6.286038479999999</v>
+      </c>
+      <c r="P97">
+        <v>-63.55883351999999</v>
+      </c>
+      <c r="Q97">
+        <v>-9.758833519999996</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.967159227814641</v>
+      </c>
+      <c r="T97">
+        <v>13.97947740868146</v>
+      </c>
+      <c r="U97">
+        <v>0.1402</v>
+      </c>
+      <c r="V97">
+        <v>0.04818920594777586</v>
+      </c>
+      <c r="W97">
+        <v>0.1334438733261218</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.535435621641954</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1764386410505477</v>
+      </c>
+      <c r="C98">
+        <v>-283.6741953746932</v>
+      </c>
+      <c r="D98">
+        <v>461.2738046253067</v>
+      </c>
+      <c r="E98">
+        <v>621.1479999999999</v>
+      </c>
+      <c r="F98">
+        <v>1083.648</v>
+      </c>
+      <c r="G98">
+        <v>338.7</v>
+      </c>
+      <c r="H98">
+        <v>666.3</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>134.3</v>
+      </c>
+      <c r="K98">
+        <v>53.8</v>
+      </c>
+      <c r="L98">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M98">
+        <v>151.9274496</v>
+      </c>
+      <c r="N98">
+        <v>-71.42744959999997</v>
+      </c>
+      <c r="O98">
+        <v>-6.428470463999997</v>
+      </c>
+      <c r="P98">
+        <v>-64.99897913599997</v>
+      </c>
+      <c r="Q98">
+        <v>-11.19897913599998</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.206624034768299</v>
+      </c>
+      <c r="T98">
+        <v>17.47434676085179</v>
+      </c>
+      <c r="U98">
+        <v>0.1402</v>
+      </c>
+      <c r="V98">
+        <v>0.04768723505248654</v>
+      </c>
+      <c r="W98">
+        <v>0.1335142496456414</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.5298581672498504</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.1777476410505477</v>
+      </c>
+      <c r="C99">
+        <v>-297.3266209642637</v>
+      </c>
+      <c r="D99">
+        <v>458.9093790357362</v>
+      </c>
+      <c r="E99">
+        <v>632.4359999999999</v>
+      </c>
+      <c r="F99">
+        <v>1094.936</v>
+      </c>
+      <c r="G99">
+        <v>338.7</v>
+      </c>
+      <c r="H99">
+        <v>666.3</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>134.3</v>
+      </c>
+      <c r="K99">
+        <v>53.8</v>
+      </c>
+      <c r="L99">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M99">
+        <v>153.5100272</v>
+      </c>
+      <c r="N99">
+        <v>-73.01002719999995</v>
+      </c>
+      <c r="O99">
+        <v>-6.570902447999996</v>
+      </c>
+      <c r="P99">
+        <v>-66.43912475199996</v>
+      </c>
+      <c r="Q99">
+        <v>-12.63912475199996</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.605732046357732</v>
+      </c>
+      <c r="T99">
+        <v>23.29912901446905</v>
+      </c>
+      <c r="U99">
+        <v>0.1402</v>
+      </c>
+      <c r="V99">
+        <v>0.047195614072564</v>
+      </c>
+      <c r="W99">
+        <v>0.1335831749070265</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.5243957119173779</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1790566410505477</v>
+      </c>
+      <c r="C100">
+        <v>-310.9549307324708</v>
+      </c>
+      <c r="D100">
+        <v>456.5690692675292</v>
+      </c>
+      <c r="E100">
+        <v>643.7239999999999</v>
+      </c>
+      <c r="F100">
+        <v>1106.224</v>
+      </c>
+      <c r="G100">
+        <v>338.7</v>
+      </c>
+      <c r="H100">
+        <v>666.3</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>134.3</v>
+      </c>
+      <c r="K100">
+        <v>53.8</v>
+      </c>
+      <c r="L100">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M100">
+        <v>155.0926048</v>
+      </c>
+      <c r="N100">
+        <v>-74.59260479999996</v>
+      </c>
+      <c r="O100">
+        <v>-6.713334431999996</v>
+      </c>
+      <c r="P100">
+        <v>-67.87927036799996</v>
+      </c>
+      <c r="Q100">
+        <v>-14.07927036799997</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.403948069536598</v>
+      </c>
+      <c r="T100">
+        <v>34.94869352170358</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.04671402617386436</v>
+      </c>
+      <c r="W100">
+        <v>0.1336506935304242</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.5190447352651597</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1803656410505477</v>
+      </c>
+      <c r="C101">
+        <v>-324.5594917591861</v>
+      </c>
+      <c r="D101">
+        <v>454.2525082408138</v>
+      </c>
+      <c r="E101">
+        <v>655.0119999999999</v>
+      </c>
+      <c r="F101">
+        <v>1117.512</v>
+      </c>
+      <c r="G101">
+        <v>338.7</v>
+      </c>
+      <c r="H101">
+        <v>666.3</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>134.3</v>
+      </c>
+      <c r="K101">
+        <v>53.8</v>
+      </c>
+      <c r="L101">
+        <v>80.50000000000001</v>
+      </c>
+      <c r="M101">
+        <v>156.6751824</v>
+      </c>
+      <c r="N101">
+        <v>-76.17518239999997</v>
+      </c>
+      <c r="O101">
+        <v>-6.855766415999997</v>
+      </c>
+      <c r="P101">
+        <v>-69.31941598399997</v>
+      </c>
+      <c r="Q101">
+        <v>-15.51941598399998</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.798596139073195</v>
+      </c>
+      <c r="T101">
+        <v>69.89738704340715</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.04624216732362331</v>
+      </c>
+      <c r="W101">
+        <v>0.133716848141228</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.5138018591513701</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
